--- a/Tabela Cetesb/DD-125-2021-E-Atualizacao-dos-Valores-Orientadores-paa-solo-e-aguas-subterraneas.xlsx
+++ b/Tabela Cetesb/DD-125-2021-E-Atualizacao-dos-Valores-Orientadores-paa-solo-e-aguas-subterraneas.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Cetesb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_80636D3D7F6D520727AAB5473B841368C9EDF652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018BFA17-A1C9-47E5-AED8-523BD7F8A47A}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_80636D3D7F6D520727AAB5473B841368C9EDF652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E8820D-96A1-4D4D-ACF0-47FCD1E1C5ED}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29310" yWindow="2340" windowWidth="14310" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="47010" yWindow="2340" windowWidth="14310" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2273,16 +2286,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>115-29-7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <rFont val="Calibri"/>
@@ -2316,27 +2319,7 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>72-54-8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>DDE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>72-55-9</t>
     </r>
   </si>
   <si>
@@ -2696,6 +2679,15 @@
   </si>
   <si>
     <t>72-20-8</t>
+  </si>
+  <si>
+    <t>72-54-8</t>
+  </si>
+  <si>
+    <t>72-55-9</t>
+  </si>
+  <si>
+    <t>115-29-7</t>
   </si>
 </sst>
 </file>
@@ -3958,7 +3950,7 @@
     <xf numFmtId="164" fontId="7" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4111,6 +4103,9 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4267,6 +4262,9 @@
     <xf numFmtId="164" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -4410,12 +4408,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5031,8 +5023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83:P83"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5083,7 +5075,7 @@
     </row>
     <row r="2" spans="1:19" ht="29.25" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -5104,7 +5096,7 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>17</v>
@@ -5163,7 +5155,7 @@
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
       <c r="H5" s="52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="49" t="s">
@@ -5171,7 +5163,7 @@
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="52" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M5" s="50"/>
       <c r="N5" s="51"/>
@@ -6299,7 +6291,7 @@
         <v>91</v>
       </c>
       <c r="B39" s="132" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C39" s="133"/>
       <c r="D39" s="107" t="s">
@@ -6971,7 +6963,7 @@
       </c>
       <c r="B59" s="192"/>
       <c r="C59" s="193" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D59" s="193"/>
       <c r="E59" s="194" t="s">
@@ -7113,7 +7105,7 @@
       </c>
       <c r="B63" s="192"/>
       <c r="C63" s="214" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D63" s="214"/>
       <c r="E63" s="201" t="s">
@@ -7207,7 +7199,7 @@
       </c>
       <c r="B66" s="219"/>
       <c r="C66" s="220" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D66" s="220"/>
       <c r="E66" s="221" t="s">
@@ -7441,7 +7433,7 @@
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1">
       <c r="A73" s="254" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B73" s="236"/>
       <c r="C73" s="243" t="s">
@@ -7481,7 +7473,7 @@
       </c>
       <c r="B74" s="236"/>
       <c r="C74" s="257" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="257"/>
       <c r="E74" s="243" t="s">
@@ -7646,810 +7638,810 @@
         <v>161</v>
       </c>
       <c r="B79" s="260"/>
-      <c r="C79" s="361" t="s">
-        <v>220</v>
-      </c>
-      <c r="D79" s="261"/>
-      <c r="E79" s="261" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="261"/>
-      <c r="G79" s="262">
+      <c r="C79" s="261" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="262"/>
+      <c r="E79" s="262" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="262"/>
+      <c r="G79" s="263">
         <v>0.2</v>
       </c>
-      <c r="H79" s="262"/>
-      <c r="I79" s="263">
+      <c r="H79" s="263"/>
+      <c r="I79" s="264">
         <v>14</v>
       </c>
-      <c r="J79" s="263"/>
-      <c r="K79" s="263">
+      <c r="J79" s="264"/>
+      <c r="K79" s="264">
         <v>33</v>
       </c>
-      <c r="L79" s="263"/>
-      <c r="M79" s="263">
+      <c r="L79" s="264"/>
+      <c r="M79" s="264">
         <v>190</v>
       </c>
-      <c r="N79" s="263"/>
-      <c r="O79" s="264"/>
-      <c r="P79" s="265">
+      <c r="N79" s="264"/>
+      <c r="O79" s="265"/>
+      <c r="P79" s="266">
         <v>600</v>
       </c>
-      <c r="Q79" s="266"/>
-      <c r="R79" s="266"/>
+      <c r="Q79" s="267"/>
+      <c r="R79" s="267"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1">
       <c r="A80" s="260" t="s">
         <v>162</v>
       </c>
       <c r="B80" s="260"/>
-      <c r="C80" s="267" t="s">
+      <c r="C80" s="268" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="267"/>
-      <c r="E80" s="267" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="267"/>
-      <c r="G80" s="268">
+      <c r="D80" s="268"/>
+      <c r="E80" s="268" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="268"/>
+      <c r="G80" s="269">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H80" s="268"/>
-      <c r="I80" s="267" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="267"/>
-      <c r="K80" s="267" t="s">
-        <v>34</v>
-      </c>
-      <c r="L80" s="267"/>
-      <c r="M80" s="267" t="s">
-        <v>34</v>
-      </c>
-      <c r="N80" s="267"/>
-      <c r="O80" s="269"/>
-      <c r="P80" s="270" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q80" s="271"/>
-      <c r="R80" s="271"/>
+      <c r="H80" s="269"/>
+      <c r="I80" s="268" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="268"/>
+      <c r="K80" s="268" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="268"/>
+      <c r="M80" s="268" t="s">
+        <v>34</v>
+      </c>
+      <c r="N80" s="268"/>
+      <c r="O80" s="270"/>
+      <c r="P80" s="271" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q80" s="272"/>
+      <c r="R80" s="272"/>
     </row>
     <row r="81" spans="1:18" ht="15" customHeight="1">
       <c r="A81" s="260" t="s">
         <v>164</v>
       </c>
       <c r="B81" s="260"/>
-      <c r="C81" s="267" t="s">
+      <c r="C81" s="268" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="267"/>
-      <c r="E81" s="267" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="267"/>
-      <c r="G81" s="272">
+      <c r="D81" s="268"/>
+      <c r="E81" s="268" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="268"/>
+      <c r="G81" s="273">
         <v>0.2</v>
       </c>
-      <c r="H81" s="272"/>
-      <c r="I81" s="273">
+      <c r="H81" s="273"/>
+      <c r="I81" s="274">
         <v>24</v>
       </c>
-      <c r="J81" s="273"/>
-      <c r="K81" s="273">
+      <c r="J81" s="274"/>
+      <c r="K81" s="274">
         <v>65</v>
       </c>
-      <c r="L81" s="273"/>
-      <c r="M81" s="273">
+      <c r="L81" s="274"/>
+      <c r="M81" s="274">
         <v>370</v>
       </c>
-      <c r="N81" s="273"/>
-      <c r="O81" s="274"/>
-      <c r="P81" s="275">
+      <c r="N81" s="274"/>
+      <c r="O81" s="275"/>
+      <c r="P81" s="276">
         <v>900</v>
       </c>
-      <c r="Q81" s="276"/>
-      <c r="R81" s="276"/>
+      <c r="Q81" s="277"/>
+      <c r="R81" s="277"/>
     </row>
     <row r="82" spans="1:18" ht="15" customHeight="1">
-      <c r="A82" s="277" t="s">
+      <c r="A82" s="278" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="277"/>
-      <c r="C82" s="277"/>
-      <c r="D82" s="277"/>
-      <c r="E82" s="277"/>
-      <c r="F82" s="277"/>
-      <c r="G82" s="277"/>
-      <c r="H82" s="277"/>
-      <c r="I82" s="277"/>
-      <c r="J82" s="277"/>
-      <c r="K82" s="277"/>
-      <c r="L82" s="277"/>
-      <c r="M82" s="277"/>
-      <c r="N82" s="277"/>
-      <c r="O82" s="277"/>
-      <c r="P82" s="277"/>
+      <c r="B82" s="278"/>
+      <c r="C82" s="278"/>
+      <c r="D82" s="278"/>
+      <c r="E82" s="278"/>
+      <c r="F82" s="278"/>
+      <c r="G82" s="278"/>
+      <c r="H82" s="278"/>
+      <c r="I82" s="278"/>
+      <c r="J82" s="278"/>
+      <c r="K82" s="278"/>
+      <c r="L82" s="278"/>
+      <c r="M82" s="278"/>
+      <c r="N82" s="278"/>
+      <c r="O82" s="278"/>
+      <c r="P82" s="278"/>
     </row>
     <row r="83" spans="1:18" ht="15" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="278" t="s">
+      <c r="B83" s="279" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="278"/>
-      <c r="D83" s="278" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" s="278"/>
-      <c r="F83" s="279">
+      <c r="C83" s="279"/>
+      <c r="D83" s="279" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="279"/>
+      <c r="F83" s="280">
         <v>1</v>
       </c>
-      <c r="G83" s="279"/>
-      <c r="H83" s="279">
+      <c r="G83" s="280"/>
+      <c r="H83" s="280">
         <v>36</v>
       </c>
-      <c r="I83" s="279"/>
-      <c r="J83" s="279">
+      <c r="I83" s="280"/>
+      <c r="J83" s="280">
         <v>250</v>
       </c>
-      <c r="K83" s="279"/>
-      <c r="L83" s="279">
+      <c r="K83" s="280"/>
+      <c r="L83" s="280">
         <v>730</v>
       </c>
-      <c r="M83" s="280"/>
-      <c r="N83" s="281">
+      <c r="M83" s="281"/>
+      <c r="N83" s="282">
         <v>8</v>
       </c>
-      <c r="O83" s="282"/>
-      <c r="P83" s="282"/>
+      <c r="O83" s="283"/>
+      <c r="P83" s="283"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="283" t="s">
+      <c r="B84" s="284" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="283"/>
-      <c r="D84" s="284" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="284"/>
-      <c r="F84" s="286">
+      <c r="C84" s="284"/>
+      <c r="D84" s="285" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="285"/>
+      <c r="F84" s="287">
         <v>0.5</v>
       </c>
-      <c r="G84" s="286"/>
-      <c r="H84" s="287">
+      <c r="G84" s="287"/>
+      <c r="H84" s="288">
         <v>33</v>
       </c>
-      <c r="I84" s="287"/>
-      <c r="J84" s="287">
+      <c r="I84" s="288"/>
+      <c r="J84" s="288">
         <v>100</v>
       </c>
-      <c r="K84" s="287"/>
-      <c r="L84" s="287">
+      <c r="K84" s="288"/>
+      <c r="L84" s="288">
         <v>550</v>
       </c>
-      <c r="M84" s="288"/>
-      <c r="N84" s="289">
+      <c r="M84" s="289"/>
+      <c r="N84" s="290">
         <v>4.8</v>
       </c>
-      <c r="O84" s="290"/>
-      <c r="P84" s="290"/>
+      <c r="O84" s="291"/>
+      <c r="P84" s="291"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="283" t="s">
+      <c r="B85" s="284" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="283"/>
-      <c r="D85" s="285"/>
-      <c r="E85" s="285"/>
-      <c r="F85" s="291">
+      <c r="C85" s="284"/>
+      <c r="D85" s="286"/>
+      <c r="E85" s="286"/>
+      <c r="F85" s="292">
         <v>0.25</v>
       </c>
-      <c r="G85" s="291"/>
-      <c r="H85" s="286">
+      <c r="G85" s="292"/>
+      <c r="H85" s="287">
         <v>0.5</v>
       </c>
-      <c r="I85" s="286"/>
-      <c r="J85" s="286">
+      <c r="I85" s="287"/>
+      <c r="J85" s="287">
         <v>1.6</v>
       </c>
-      <c r="K85" s="286"/>
-      <c r="L85" s="287">
+      <c r="K85" s="287"/>
+      <c r="L85" s="288">
         <v>3</v>
       </c>
-      <c r="M85" s="288"/>
-      <c r="N85" s="292">
+      <c r="M85" s="289"/>
+      <c r="N85" s="293">
         <v>14</v>
       </c>
-      <c r="O85" s="293"/>
-      <c r="P85" s="293"/>
+      <c r="O85" s="294"/>
+      <c r="P85" s="294"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="283" t="s">
+      <c r="B86" s="284" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="283"/>
-      <c r="D86" s="283" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="283"/>
-      <c r="F86" s="286">
+      <c r="C86" s="284"/>
+      <c r="D86" s="284" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="284"/>
+      <c r="F86" s="287">
         <v>0.1</v>
       </c>
-      <c r="G86" s="286"/>
-      <c r="H86" s="287">
+      <c r="G86" s="287"/>
+      <c r="H86" s="288">
         <v>44</v>
       </c>
-      <c r="I86" s="287"/>
-      <c r="J86" s="287">
+      <c r="I86" s="288"/>
+      <c r="J86" s="288">
         <v>140</v>
       </c>
-      <c r="K86" s="287"/>
-      <c r="L86" s="287">
+      <c r="K86" s="288"/>
+      <c r="L86" s="288">
         <v>850</v>
       </c>
-      <c r="M86" s="288"/>
-      <c r="N86" s="294">
+      <c r="M86" s="289"/>
+      <c r="N86" s="295">
         <v>600</v>
       </c>
-      <c r="O86" s="295"/>
-      <c r="P86" s="295"/>
+      <c r="O86" s="296"/>
+      <c r="P86" s="296"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1">
-      <c r="A87" s="296" t="s">
+      <c r="A87" s="297" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="296"/>
-      <c r="C87" s="296"/>
-      <c r="D87" s="296"/>
-      <c r="E87" s="296"/>
-      <c r="F87" s="296"/>
-      <c r="G87" s="296"/>
-      <c r="H87" s="296"/>
-      <c r="I87" s="296"/>
-      <c r="J87" s="296"/>
-      <c r="K87" s="296"/>
-      <c r="L87" s="296"/>
-      <c r="M87" s="296"/>
-      <c r="N87" s="296"/>
-      <c r="O87" s="296"/>
-      <c r="P87" s="296"/>
+      <c r="B87" s="297"/>
+      <c r="C87" s="297"/>
+      <c r="D87" s="297"/>
+      <c r="E87" s="297"/>
+      <c r="F87" s="297"/>
+      <c r="G87" s="297"/>
+      <c r="H87" s="297"/>
+      <c r="I87" s="297"/>
+      <c r="J87" s="297"/>
+      <c r="K87" s="297"/>
+      <c r="L87" s="297"/>
+      <c r="M87" s="297"/>
+      <c r="N87" s="297"/>
+      <c r="O87" s="297"/>
+      <c r="P87" s="297"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1">
       <c r="A88" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="297" t="s">
+      <c r="B88" s="298" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="298"/>
-      <c r="D88" s="297" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="298"/>
-      <c r="F88" s="299">
+      <c r="C88" s="299"/>
+      <c r="D88" s="298" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="299"/>
+      <c r="F88" s="300">
         <v>0.02</v>
       </c>
-      <c r="G88" s="300"/>
-      <c r="H88" s="301">
+      <c r="G88" s="301"/>
+      <c r="H88" s="302">
         <v>0.4</v>
       </c>
-      <c r="I88" s="302"/>
-      <c r="J88" s="301">
+      <c r="I88" s="303"/>
+      <c r="J88" s="302">
         <v>0.8</v>
       </c>
-      <c r="K88" s="302"/>
-      <c r="L88" s="303">
+      <c r="K88" s="303"/>
+      <c r="L88" s="304">
         <v>6</v>
       </c>
-      <c r="M88" s="304"/>
-      <c r="N88" s="305" t="s">
+      <c r="M88" s="305"/>
+      <c r="N88" s="306" t="s">
         <v>178</v>
       </c>
-      <c r="O88" s="306"/>
-      <c r="P88" s="306"/>
+      <c r="O88" s="307"/>
+      <c r="P88" s="307"/>
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1">
       <c r="A89" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="307" t="s">
+      <c r="B89" s="308" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="308"/>
-      <c r="D89" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="308"/>
-      <c r="F89" s="309">
+      <c r="C89" s="309"/>
+      <c r="D89" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="309"/>
+      <c r="F89" s="310">
         <v>0.01</v>
       </c>
-      <c r="G89" s="310"/>
-      <c r="H89" s="311">
+      <c r="G89" s="311"/>
+      <c r="H89" s="312">
         <v>0.3</v>
       </c>
-      <c r="I89" s="312"/>
-      <c r="J89" s="311">
+      <c r="I89" s="313"/>
+      <c r="J89" s="312">
         <v>0.8</v>
       </c>
-      <c r="K89" s="312"/>
-      <c r="L89" s="311">
+      <c r="K89" s="313"/>
+      <c r="L89" s="312">
         <v>5.9</v>
       </c>
-      <c r="M89" s="312"/>
-      <c r="N89" s="305"/>
-      <c r="O89" s="306"/>
-      <c r="P89" s="306"/>
+      <c r="M89" s="313"/>
+      <c r="N89" s="306"/>
+      <c r="O89" s="307"/>
+      <c r="P89" s="307"/>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1">
       <c r="A90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="362" t="s">
-        <v>221</v>
-      </c>
-      <c r="C90" s="308"/>
-      <c r="D90" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="308"/>
-      <c r="F90" s="313">
+      <c r="B90" s="314" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="309"/>
+      <c r="D90" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="309"/>
+      <c r="F90" s="315">
         <v>1E-3</v>
       </c>
-      <c r="G90" s="314"/>
-      <c r="H90" s="311">
+      <c r="G90" s="316"/>
+      <c r="H90" s="312">
         <v>0.8</v>
       </c>
-      <c r="I90" s="312"/>
-      <c r="J90" s="311">
+      <c r="I90" s="313"/>
+      <c r="J90" s="312">
         <v>2.5</v>
       </c>
-      <c r="K90" s="312"/>
-      <c r="L90" s="315">
+      <c r="K90" s="313"/>
+      <c r="L90" s="317">
         <v>17</v>
       </c>
-      <c r="M90" s="316"/>
-      <c r="N90" s="317">
+      <c r="M90" s="318"/>
+      <c r="N90" s="319">
         <v>0.6</v>
       </c>
-      <c r="O90" s="318"/>
-      <c r="P90" s="318"/>
+      <c r="O90" s="320"/>
+      <c r="P90" s="320"/>
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1">
       <c r="A91" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="307" t="s">
+      <c r="B91" s="308" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="308"/>
-      <c r="D91" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="308"/>
-      <c r="F91" s="319">
+      <c r="C91" s="309"/>
+      <c r="D91" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="309"/>
+      <c r="F91" s="321">
         <v>1E-4</v>
       </c>
-      <c r="G91" s="320"/>
-      <c r="H91" s="311">
+      <c r="G91" s="322"/>
+      <c r="H91" s="312">
         <v>0.3</v>
       </c>
-      <c r="I91" s="312"/>
-      <c r="J91" s="311">
+      <c r="I91" s="313"/>
+      <c r="J91" s="312">
         <v>0.7</v>
       </c>
-      <c r="K91" s="312"/>
-      <c r="L91" s="311">
+      <c r="K91" s="313"/>
+      <c r="L91" s="312">
         <v>3.8</v>
       </c>
-      <c r="M91" s="312"/>
-      <c r="N91" s="321">
+      <c r="M91" s="313"/>
+      <c r="N91" s="323">
         <v>7</v>
       </c>
-      <c r="O91" s="322"/>
-      <c r="P91" s="322"/>
+      <c r="O91" s="324"/>
+      <c r="P91" s="324"/>
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="307" t="s">
+      <c r="B92" s="314" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="309"/>
+      <c r="D92" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="309"/>
+      <c r="F92" s="312">
+        <v>0.7</v>
+      </c>
+      <c r="G92" s="313"/>
+      <c r="H92" s="312">
+        <v>4.7</v>
+      </c>
+      <c r="I92" s="313"/>
+      <c r="J92" s="317">
+        <v>12</v>
+      </c>
+      <c r="K92" s="318"/>
+      <c r="L92" s="317">
+        <v>66</v>
+      </c>
+      <c r="M92" s="318"/>
+      <c r="N92" s="325" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="308"/>
-      <c r="D92" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="308"/>
-      <c r="F92" s="311">
-        <v>0.7</v>
-      </c>
-      <c r="G92" s="312"/>
-      <c r="H92" s="311">
-        <v>4.7</v>
-      </c>
-      <c r="I92" s="312"/>
-      <c r="J92" s="315">
-        <v>12</v>
-      </c>
-      <c r="K92" s="316"/>
-      <c r="L92" s="315">
-        <v>66</v>
-      </c>
-      <c r="M92" s="316"/>
-      <c r="N92" s="323" t="s">
-        <v>186</v>
-      </c>
-      <c r="O92" s="324"/>
-      <c r="P92" s="324"/>
+      <c r="O92" s="326"/>
+      <c r="P92" s="326"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="307" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="308"/>
-      <c r="D93" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="308"/>
-      <c r="F93" s="309">
+        <v>186</v>
+      </c>
+      <c r="B93" s="314" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="309"/>
+      <c r="D93" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="309"/>
+      <c r="F93" s="310">
         <v>0.02</v>
       </c>
-      <c r="G93" s="310"/>
-      <c r="H93" s="315">
+      <c r="G93" s="311"/>
+      <c r="H93" s="317">
         <v>1</v>
       </c>
-      <c r="I93" s="316"/>
-      <c r="J93" s="311">
+      <c r="I93" s="318"/>
+      <c r="J93" s="312">
         <v>7.5</v>
       </c>
-      <c r="K93" s="312"/>
-      <c r="L93" s="315">
+      <c r="K93" s="313"/>
+      <c r="L93" s="317">
         <v>23</v>
       </c>
-      <c r="M93" s="316"/>
-      <c r="N93" s="325"/>
-      <c r="O93" s="326"/>
-      <c r="P93" s="326"/>
+      <c r="M93" s="318"/>
+      <c r="N93" s="327"/>
+      <c r="O93" s="328"/>
+      <c r="P93" s="328"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1">
       <c r="A94" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" s="307" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="308"/>
-      <c r="D94" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" s="308"/>
-      <c r="F94" s="309">
+        <v>187</v>
+      </c>
+      <c r="B94" s="314" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="309"/>
+      <c r="D94" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="309"/>
+      <c r="F94" s="310">
         <v>0.01</v>
       </c>
-      <c r="G94" s="310"/>
-      <c r="H94" s="311">
+      <c r="G94" s="311"/>
+      <c r="H94" s="312">
         <v>1.2</v>
       </c>
-      <c r="I94" s="312"/>
-      <c r="J94" s="311">
+      <c r="I94" s="313"/>
+      <c r="J94" s="312">
         <v>8.5</v>
       </c>
-      <c r="K94" s="312"/>
-      <c r="L94" s="315">
+      <c r="K94" s="313"/>
+      <c r="L94" s="317">
         <v>25</v>
       </c>
-      <c r="M94" s="316"/>
-      <c r="N94" s="327" t="s">
-        <v>191</v>
-      </c>
-      <c r="O94" s="328"/>
-      <c r="P94" s="328"/>
+      <c r="M94" s="318"/>
+      <c r="N94" s="329" t="s">
+        <v>188</v>
+      </c>
+      <c r="O94" s="330"/>
+      <c r="P94" s="330"/>
     </row>
     <row r="95" spans="1:18" ht="15" customHeight="1">
       <c r="A95" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B95" s="307" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" s="308"/>
-      <c r="D95" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="308"/>
-      <c r="F95" s="309">
+        <v>189</v>
+      </c>
+      <c r="B95" s="308" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="309"/>
+      <c r="D95" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="309"/>
+      <c r="F95" s="310">
         <v>0.01</v>
       </c>
-      <c r="G95" s="310"/>
-      <c r="H95" s="311">
+      <c r="G95" s="311"/>
+      <c r="H95" s="312">
         <v>5.5</v>
       </c>
-      <c r="I95" s="312"/>
-      <c r="J95" s="315">
+      <c r="I95" s="313"/>
+      <c r="J95" s="317">
         <v>22</v>
       </c>
-      <c r="K95" s="316"/>
-      <c r="L95" s="315">
+      <c r="K95" s="318"/>
+      <c r="L95" s="317">
         <v>82</v>
       </c>
-      <c r="M95" s="316"/>
-      <c r="N95" s="329"/>
-      <c r="O95" s="330"/>
-      <c r="P95" s="330"/>
+      <c r="M95" s="318"/>
+      <c r="N95" s="331"/>
+      <c r="O95" s="332"/>
+      <c r="P95" s="332"/>
     </row>
     <row r="96" spans="1:18" ht="15" customHeight="1">
       <c r="A96" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="307" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="308"/>
-      <c r="D96" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96" s="308"/>
-      <c r="F96" s="319">
+        <v>191</v>
+      </c>
+      <c r="B96" s="308" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="309"/>
+      <c r="D96" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="309"/>
+      <c r="F96" s="321">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G96" s="320"/>
-      <c r="H96" s="313">
+      <c r="G96" s="322"/>
+      <c r="H96" s="315">
         <v>2E-3</v>
       </c>
-      <c r="I96" s="314"/>
-      <c r="J96" s="309">
+      <c r="I96" s="316"/>
+      <c r="J96" s="310">
         <v>0.02</v>
       </c>
-      <c r="K96" s="310"/>
-      <c r="L96" s="309">
+      <c r="K96" s="311"/>
+      <c r="L96" s="310">
         <v>0.04</v>
       </c>
-      <c r="M96" s="310"/>
-      <c r="N96" s="331">
+      <c r="M96" s="311"/>
+      <c r="N96" s="333">
         <v>0.05</v>
       </c>
-      <c r="O96" s="332"/>
-      <c r="P96" s="332"/>
+      <c r="O96" s="334"/>
+      <c r="P96" s="334"/>
     </row>
     <row r="97" spans="1:19" ht="15" customHeight="1">
       <c r="A97" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B97" s="307" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" s="308"/>
-      <c r="D97" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E97" s="308"/>
-      <c r="F97" s="313">
+        <v>193</v>
+      </c>
+      <c r="B97" s="308" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="309"/>
+      <c r="D97" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="309"/>
+      <c r="F97" s="315">
         <v>1E-3</v>
       </c>
-      <c r="G97" s="314"/>
-      <c r="H97" s="309">
+      <c r="G97" s="316"/>
+      <c r="H97" s="310">
         <v>0.01</v>
       </c>
-      <c r="I97" s="310"/>
-      <c r="J97" s="309">
+      <c r="I97" s="311"/>
+      <c r="J97" s="310">
         <v>0.06</v>
       </c>
-      <c r="K97" s="310"/>
-      <c r="L97" s="311">
+      <c r="K97" s="311"/>
+      <c r="L97" s="312">
         <v>0.2</v>
       </c>
-      <c r="M97" s="312"/>
-      <c r="N97" s="333">
+      <c r="M97" s="313"/>
+      <c r="N97" s="335">
         <v>0.17</v>
       </c>
-      <c r="O97" s="334"/>
-      <c r="P97" s="334"/>
+      <c r="O97" s="336"/>
+      <c r="P97" s="336"/>
     </row>
     <row r="98" spans="1:19" ht="15" customHeight="1">
       <c r="A98" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98" s="307" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="308"/>
-      <c r="D98" s="307" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="308"/>
-      <c r="F98" s="313">
+        <v>195</v>
+      </c>
+      <c r="B98" s="308" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="309"/>
+      <c r="D98" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="309"/>
+      <c r="F98" s="315">
         <v>1E-3</v>
       </c>
-      <c r="G98" s="314"/>
-      <c r="H98" s="313">
+      <c r="G98" s="316"/>
+      <c r="H98" s="315">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I98" s="314"/>
-      <c r="J98" s="309">
+      <c r="I98" s="316"/>
+      <c r="J98" s="310">
         <v>0.06</v>
       </c>
-      <c r="K98" s="310"/>
-      <c r="L98" s="311">
+      <c r="K98" s="311"/>
+      <c r="L98" s="312">
         <v>0.2</v>
       </c>
-      <c r="M98" s="312"/>
-      <c r="N98" s="321">
+      <c r="M98" s="313"/>
+      <c r="N98" s="323">
         <v>2</v>
       </c>
-      <c r="O98" s="322"/>
-      <c r="P98" s="322"/>
+      <c r="O98" s="324"/>
+      <c r="P98" s="324"/>
     </row>
     <row r="99" spans="1:19" ht="15" customHeight="1">
-      <c r="A99" s="335" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99" s="335"/>
-      <c r="C99" s="335"/>
-      <c r="D99" s="335"/>
-      <c r="E99" s="335"/>
-      <c r="F99" s="335"/>
-      <c r="G99" s="335"/>
-      <c r="H99" s="335"/>
-      <c r="I99" s="335"/>
-      <c r="J99" s="335"/>
-      <c r="K99" s="335"/>
-      <c r="L99" s="335"/>
-      <c r="M99" s="335"/>
-      <c r="N99" s="335"/>
-      <c r="O99" s="335"/>
-      <c r="P99" s="335"/>
+      <c r="A99" s="337" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="337"/>
+      <c r="C99" s="337"/>
+      <c r="D99" s="337"/>
+      <c r="E99" s="337"/>
+      <c r="F99" s="337"/>
+      <c r="G99" s="337"/>
+      <c r="H99" s="337"/>
+      <c r="I99" s="337"/>
+      <c r="J99" s="337"/>
+      <c r="K99" s="337"/>
+      <c r="L99" s="337"/>
+      <c r="M99" s="337"/>
+      <c r="N99" s="337"/>
+      <c r="O99" s="337"/>
+      <c r="P99" s="337"/>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100" s="336" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="336"/>
-      <c r="D100" s="336" t="s">
-        <v>34</v>
-      </c>
-      <c r="E100" s="336"/>
-      <c r="F100" s="337">
+        <v>198</v>
+      </c>
+      <c r="B100" s="338" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="338"/>
+      <c r="D100" s="338" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="338"/>
+      <c r="F100" s="339">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G100" s="337"/>
-      <c r="H100" s="338">
+      <c r="G100" s="339"/>
+      <c r="H100" s="340">
         <v>0.01</v>
       </c>
-      <c r="I100" s="338"/>
-      <c r="J100" s="338">
+      <c r="I100" s="340"/>
+      <c r="J100" s="340">
         <v>0.03</v>
       </c>
-      <c r="K100" s="338"/>
-      <c r="L100" s="338">
+      <c r="K100" s="340"/>
+      <c r="L100" s="340">
         <v>0.12</v>
       </c>
-      <c r="M100" s="339"/>
-      <c r="N100" s="340">
+      <c r="M100" s="341"/>
+      <c r="N100" s="342">
         <v>3.5</v>
       </c>
-      <c r="O100" s="341"/>
-      <c r="P100" s="341"/>
+      <c r="O100" s="343"/>
+      <c r="P100" s="343"/>
     </row>
     <row r="101" spans="1:19" ht="15" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="342" t="s">
-        <v>202</v>
-      </c>
-      <c r="C101" s="342"/>
-      <c r="D101" s="342" t="s">
-        <v>34</v>
-      </c>
-      <c r="E101" s="342"/>
-      <c r="F101" s="343">
+        <v>200</v>
+      </c>
+      <c r="B101" s="344" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="344"/>
+      <c r="D101" s="344" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="344"/>
+      <c r="F101" s="345">
         <v>0.24</v>
       </c>
-      <c r="G101" s="343"/>
-      <c r="H101" s="344">
+      <c r="G101" s="345"/>
+      <c r="H101" s="346">
         <v>16</v>
       </c>
-      <c r="I101" s="344"/>
-      <c r="J101" s="345">
+      <c r="I101" s="346"/>
+      <c r="J101" s="347">
         <v>1.7</v>
       </c>
-      <c r="K101" s="345"/>
-      <c r="L101" s="344">
+      <c r="K101" s="347"/>
+      <c r="L101" s="346">
         <v>270</v>
       </c>
-      <c r="M101" s="346"/>
-      <c r="N101" s="347">
+      <c r="M101" s="348"/>
+      <c r="N101" s="349">
         <v>0.09</v>
       </c>
-      <c r="O101" s="348"/>
-      <c r="P101" s="348"/>
+      <c r="O101" s="350"/>
+      <c r="P101" s="350"/>
     </row>
     <row r="102" spans="1:19" ht="15" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="336" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" s="336"/>
-      <c r="D102" s="336" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" s="336"/>
-      <c r="F102" s="349">
+        <v>201</v>
+      </c>
+      <c r="B102" s="338" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="338"/>
+      <c r="D102" s="338" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="338"/>
+      <c r="F102" s="351">
         <v>2.3E-2</v>
       </c>
-      <c r="G102" s="349"/>
-      <c r="H102" s="338">
+      <c r="G102" s="351"/>
+      <c r="H102" s="340">
         <v>0.15</v>
       </c>
-      <c r="I102" s="338"/>
-      <c r="J102" s="350">
+      <c r="I102" s="340"/>
+      <c r="J102" s="352">
         <v>0.7</v>
       </c>
-      <c r="K102" s="350"/>
-      <c r="L102" s="350">
+      <c r="K102" s="352"/>
+      <c r="L102" s="352">
         <v>3.2</v>
       </c>
-      <c r="M102" s="351"/>
-      <c r="N102" s="352">
+      <c r="M102" s="353"/>
+      <c r="N102" s="354">
         <v>42</v>
       </c>
-      <c r="O102" s="353"/>
-      <c r="P102" s="353"/>
+      <c r="O102" s="355"/>
+      <c r="P102" s="355"/>
     </row>
     <row r="103" spans="1:19" ht="56" customHeight="1">
       <c r="A103" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" s="354" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="354"/>
-      <c r="D103" s="354" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="354"/>
-      <c r="F103" s="355">
+        <v>203</v>
+      </c>
+      <c r="B103" s="356" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="356"/>
+      <c r="D103" s="356" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="356"/>
+      <c r="F103" s="357">
         <v>2</v>
       </c>
-      <c r="G103" s="355"/>
-      <c r="H103" s="356">
+      <c r="G103" s="357"/>
+      <c r="H103" s="358">
         <v>7.5</v>
       </c>
-      <c r="I103" s="356"/>
-      <c r="J103" s="355">
+      <c r="I103" s="358"/>
+      <c r="J103" s="357">
         <v>37</v>
       </c>
-      <c r="K103" s="355"/>
-      <c r="L103" s="355">
+      <c r="K103" s="357"/>
+      <c r="L103" s="357">
         <v>140</v>
       </c>
-      <c r="M103" s="357"/>
-      <c r="N103" s="358" t="s">
-        <v>34</v>
-      </c>
-      <c r="O103" s="359"/>
-      <c r="P103" s="359"/>
+      <c r="M103" s="359"/>
+      <c r="N103" s="360" t="s">
+        <v>34</v>
+      </c>
+      <c r="O103" s="361"/>
+      <c r="P103" s="361"/>
     </row>
     <row r="104" spans="1:19" ht="177.5" customHeight="1">
-      <c r="A104" s="360" t="s">
-        <v>211</v>
+      <c r="A104" s="362" t="s">
+        <v>208</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -8472,7 +8464,7 @@
     </row>
     <row r="105" spans="1:19" ht="30" customHeight="1">
       <c r="A105" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -8495,7 +8487,7 @@
     </row>
     <row r="106" spans="1:19" ht="37.5" customHeight="1">
       <c r="A106" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>

--- a/Tabela Cetesb/DD-125-2021-E-Atualizacao-dos-Valores-Orientadores-paa-solo-e-aguas-subterraneas.xlsx
+++ b/Tabela Cetesb/DD-125-2021-E-Atualizacao-dos-Valores-Orientadores-paa-solo-e-aguas-subterraneas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Cetesb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_80636D3D7F6D520727AAB5473B841368C9EDF652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E8820D-96A1-4D4D-ACF0-47FCD1E1C5ED}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_80636D3D7F6D520727AAB5473B841368C9EDF652" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9E7DA3-DC6E-4A3A-8814-DEC1231F817A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="47010" yWindow="2340" windowWidth="14310" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1428,16 +1428,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>120-82-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <vertAlign val="subscript"/>
         <sz val="10"/>
         <rFont val="Calibri"/>
@@ -2688,6 +2678,9 @@
   </si>
   <si>
     <t>115-29-7</t>
+  </si>
+  <si>
+    <t>120-82-1</t>
   </si>
 </sst>
 </file>
@@ -3319,7 +3312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3353,6 +3346,18 @@
     <xf numFmtId="0" fontId="20" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
@@ -3368,17 +3373,926 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="29" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="29" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="27" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="30" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="27" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="24" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="21" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="19" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
@@ -3488,926 +4402,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="19" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="20" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="21" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="21" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="24" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="26" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="28" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="27" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="27" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="30" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="29" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="29" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="30" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4842,102 +4838,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="37.25" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="37.25" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="29" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -4945,14 +4941,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -4965,15 +4961,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="27.25" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -4986,33 +4982,33 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5023,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:C94"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88:M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5051,3733 +5047,3835 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="A2" s="327" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="329"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="330" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="334"/>
+      <c r="D3" s="339" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35" t="s">
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
+      <c r="P3" s="343"/>
+      <c r="Q3" s="344"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="41" t="s">
+      <c r="A4" s="331"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="348" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="45" t="s">
+      <c r="E4" s="349"/>
+      <c r="F4" s="352" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="49" t="s">
+      <c r="G4" s="353"/>
+      <c r="H4" s="356" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
+      <c r="I4" s="357"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="357"/>
+      <c r="L4" s="357"/>
+      <c r="M4" s="357"/>
+      <c r="N4" s="358"/>
+      <c r="O4" s="345"/>
+      <c r="P4" s="346"/>
+      <c r="Q4" s="347"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="49" t="s">
+      <c r="A5" s="332"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="350"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="354"/>
+      <c r="G5" s="355"/>
+      <c r="H5" s="359" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="358"/>
+      <c r="J5" s="356" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="53" t="s">
+      <c r="K5" s="358"/>
+      <c r="L5" s="359" t="s">
+        <v>215</v>
+      </c>
+      <c r="M5" s="357"/>
+      <c r="N5" s="358"/>
+      <c r="O5" s="360" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
+      <c r="P5" s="361"/>
+      <c r="Q5" s="362"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="319" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
+      <c r="B6" s="319"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
+      <c r="N6" s="319"/>
+      <c r="O6" s="319"/>
+      <c r="P6" s="319"/>
+      <c r="Q6" s="319"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="320" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="321"/>
+      <c r="D7" s="320" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59">
+      <c r="E7" s="321"/>
+      <c r="F7" s="322">
         <v>2</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="59">
+      <c r="G7" s="323"/>
+      <c r="H7" s="322">
         <v>5</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="59">
+      <c r="I7" s="323"/>
+      <c r="J7" s="322">
         <v>10</v>
       </c>
-      <c r="K7" s="60"/>
-      <c r="L7" s="59">
+      <c r="K7" s="323"/>
+      <c r="L7" s="322">
         <v>25</v>
       </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="62">
+      <c r="M7" s="324"/>
+      <c r="N7" s="323"/>
+      <c r="O7" s="325">
         <v>6</v>
       </c>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
+      <c r="P7" s="326"/>
+      <c r="Q7" s="326"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="291" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66">
+      <c r="C8" s="292"/>
+      <c r="D8" s="313">
         <v>3.5</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68">
+      <c r="E8" s="314"/>
+      <c r="F8" s="293">
         <v>15</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="68">
+      <c r="G8" s="294"/>
+      <c r="H8" s="293">
         <v>35</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="68">
+      <c r="I8" s="294"/>
+      <c r="J8" s="293">
         <v>55</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="68">
+      <c r="K8" s="294"/>
+      <c r="L8" s="293">
         <v>150</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="71">
+      <c r="M8" s="310"/>
+      <c r="N8" s="294"/>
+      <c r="O8" s="311">
         <v>10</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
+      <c r="P8" s="312"/>
+      <c r="Q8" s="312"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="68">
+      <c r="C9" s="292"/>
+      <c r="D9" s="293">
         <v>75</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="68">
+      <c r="E9" s="294"/>
+      <c r="F9" s="293">
         <v>120</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="68">
+      <c r="G9" s="294"/>
+      <c r="H9" s="293">
         <v>500</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="68">
+      <c r="I9" s="294"/>
+      <c r="J9" s="293">
         <v>1300</v>
       </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="68">
+      <c r="K9" s="294"/>
+      <c r="L9" s="293">
         <v>7300</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="71">
+      <c r="M9" s="310"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="311">
         <v>700</v>
       </c>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
+      <c r="P9" s="312"/>
+      <c r="Q9" s="312"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="291" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="74">
+      <c r="C10" s="292"/>
+      <c r="D10" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="292"/>
+      <c r="F10" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="292"/>
+      <c r="H10" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="292"/>
+      <c r="J10" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="292"/>
+      <c r="L10" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="295"/>
+      <c r="N10" s="292"/>
+      <c r="O10" s="296">
         <v>2400</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
+      <c r="P10" s="297"/>
+      <c r="Q10" s="297"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="291" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="64" t="s">
+      <c r="C11" s="292"/>
+      <c r="D11" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66">
+      <c r="E11" s="292"/>
+      <c r="F11" s="313">
         <v>1.3</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="66">
+      <c r="G11" s="314"/>
+      <c r="H11" s="313">
         <v>3.6</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68">
+      <c r="I11" s="314"/>
+      <c r="J11" s="293">
         <v>14</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="68">
+      <c r="K11" s="294"/>
+      <c r="L11" s="293">
         <v>160</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="76">
+      <c r="M11" s="310"/>
+      <c r="N11" s="294"/>
+      <c r="O11" s="315">
         <v>3</v>
       </c>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
+      <c r="P11" s="316"/>
+      <c r="Q11" s="316"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="291" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="68">
+      <c r="C12" s="292"/>
+      <c r="D12" s="293">
         <v>17</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="68">
+      <c r="E12" s="294"/>
+      <c r="F12" s="293">
         <v>72</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="68">
+      <c r="G12" s="294"/>
+      <c r="H12" s="293">
         <v>150</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="68">
+      <c r="I12" s="294"/>
+      <c r="J12" s="293">
         <v>240</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="68">
+      <c r="K12" s="294"/>
+      <c r="L12" s="293">
         <v>4400</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="71">
+      <c r="M12" s="310"/>
+      <c r="N12" s="294"/>
+      <c r="O12" s="311">
         <v>10</v>
       </c>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
+      <c r="P12" s="312"/>
+      <c r="Q12" s="312"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="291" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="68">
+      <c r="C13" s="292"/>
+      <c r="D13" s="293">
         <v>13</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="68">
+      <c r="E13" s="294"/>
+      <c r="F13" s="293">
         <v>25</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="68">
+      <c r="G13" s="294"/>
+      <c r="H13" s="293">
         <v>35</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="68">
+      <c r="I13" s="294"/>
+      <c r="J13" s="293">
         <v>65</v>
       </c>
-      <c r="K13" s="69"/>
-      <c r="L13" s="68">
+      <c r="K13" s="294"/>
+      <c r="L13" s="293">
         <v>90</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="71">
+      <c r="M13" s="310"/>
+      <c r="N13" s="294"/>
+      <c r="O13" s="311">
         <v>70</v>
       </c>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
+      <c r="P13" s="312"/>
+      <c r="Q13" s="312"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="291" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="68">
+      <c r="C14" s="292"/>
+      <c r="D14" s="293">
         <v>35</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="68">
+      <c r="E14" s="294"/>
+      <c r="F14" s="293">
         <v>60</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="68">
+      <c r="G14" s="294"/>
+      <c r="H14" s="293">
         <v>760</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="68">
+      <c r="I14" s="294"/>
+      <c r="J14" s="293">
         <v>2100</v>
       </c>
-      <c r="K14" s="69"/>
-      <c r="L14" s="64" t="s">
+      <c r="K14" s="294"/>
+      <c r="L14" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="74">
+      <c r="M14" s="295"/>
+      <c r="N14" s="292"/>
+      <c r="O14" s="296">
         <v>2000</v>
       </c>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
+      <c r="P14" s="297"/>
+      <c r="Q14" s="297"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="291" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="68">
+      <c r="C15" s="292"/>
+      <c r="D15" s="293">
         <v>40</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="68">
+      <c r="E15" s="294"/>
+      <c r="F15" s="293">
         <v>75</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="68">
+      <c r="G15" s="294"/>
+      <c r="H15" s="293">
         <v>150</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="68">
+      <c r="I15" s="294"/>
+      <c r="J15" s="293">
         <v>300</v>
       </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="68">
+      <c r="K15" s="294"/>
+      <c r="L15" s="293">
         <v>400</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="71">
+      <c r="M15" s="310"/>
+      <c r="N15" s="294"/>
+      <c r="O15" s="311">
         <v>50</v>
       </c>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
+      <c r="P15" s="312"/>
+      <c r="Q15" s="312"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="291" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66">
+      <c r="C16" s="292"/>
+      <c r="D16" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="292"/>
+      <c r="F16" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="292"/>
+      <c r="H16" s="313">
         <v>0.4</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="66">
+      <c r="I16" s="314"/>
+      <c r="J16" s="313">
         <v>3.2</v>
       </c>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68">
+      <c r="K16" s="314"/>
+      <c r="L16" s="293">
         <v>10</v>
       </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
+      <c r="M16" s="310"/>
+      <c r="N16" s="294"/>
+      <c r="O16" s="317" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="318"/>
+      <c r="Q16" s="318"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="291" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="80">
+      <c r="C17" s="292"/>
+      <c r="D17" s="308">
         <v>0.05</v>
       </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="66">
+      <c r="E17" s="309"/>
+      <c r="F17" s="313">
         <v>0.5</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="66">
+      <c r="G17" s="314"/>
+      <c r="H17" s="313">
         <v>1.2</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="66">
+      <c r="I17" s="314"/>
+      <c r="J17" s="313">
         <v>0.9</v>
       </c>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68">
+      <c r="K17" s="314"/>
+      <c r="L17" s="293">
         <v>7</v>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="71">
+      <c r="M17" s="310"/>
+      <c r="N17" s="294"/>
+      <c r="O17" s="311">
         <v>1</v>
       </c>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
+      <c r="P17" s="312"/>
+      <c r="Q17" s="312"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="291" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="64" t="s">
+      <c r="C18" s="292"/>
+      <c r="D18" s="291" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="68">
+      <c r="E18" s="292"/>
+      <c r="F18" s="293">
         <v>5</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="68">
+      <c r="G18" s="294"/>
+      <c r="H18" s="293">
         <v>11</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="68">
+      <c r="I18" s="294"/>
+      <c r="J18" s="293">
         <v>29</v>
       </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="68">
+      <c r="K18" s="294"/>
+      <c r="L18" s="293">
         <v>180</v>
       </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="71">
+      <c r="M18" s="310"/>
+      <c r="N18" s="294"/>
+      <c r="O18" s="311">
         <v>30</v>
       </c>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
+      <c r="P18" s="312"/>
+      <c r="Q18" s="312"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="291" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="68">
+      <c r="C19" s="292"/>
+      <c r="D19" s="293">
         <v>13</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="68">
+      <c r="E19" s="294"/>
+      <c r="F19" s="293">
         <v>30</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="68">
+      <c r="G19" s="294"/>
+      <c r="H19" s="293">
         <v>190</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="68">
+      <c r="I19" s="294"/>
+      <c r="J19" s="293">
         <v>480</v>
       </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="68">
+      <c r="K19" s="294"/>
+      <c r="L19" s="293">
         <v>3800</v>
       </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="71">
+      <c r="M19" s="310"/>
+      <c r="N19" s="294"/>
+      <c r="O19" s="311">
         <v>70</v>
       </c>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
+      <c r="P19" s="312"/>
+      <c r="Q19" s="312"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="291" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="73"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="74">
+      <c r="C20" s="292"/>
+      <c r="D20" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="292"/>
+      <c r="F20" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="292"/>
+      <c r="H20" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="292"/>
+      <c r="J20" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="292"/>
+      <c r="L20" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="295"/>
+      <c r="N20" s="292"/>
+      <c r="O20" s="296">
         <v>10000</v>
       </c>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
+      <c r="P20" s="297"/>
+      <c r="Q20" s="297"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="291" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="80">
+      <c r="C21" s="292"/>
+      <c r="D21" s="308">
         <v>0.25</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="68">
+      <c r="E21" s="309"/>
+      <c r="F21" s="293">
         <v>2</v>
       </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="68">
+      <c r="G21" s="294"/>
+      <c r="H21" s="293">
         <v>25</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="68">
+      <c r="I21" s="294"/>
+      <c r="J21" s="293">
         <v>50</v>
       </c>
-      <c r="K21" s="69"/>
-      <c r="L21" s="68">
+      <c r="K21" s="294"/>
+      <c r="L21" s="293">
         <v>100</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="71">
+      <c r="M21" s="310"/>
+      <c r="N21" s="294"/>
+      <c r="O21" s="311">
         <v>50</v>
       </c>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
+      <c r="P21" s="312"/>
+      <c r="Q21" s="312"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="291" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="80">
+      <c r="C22" s="292"/>
+      <c r="D22" s="308">
         <v>0.25</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="66">
+      <c r="E22" s="309"/>
+      <c r="F22" s="313">
         <v>1.2</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68">
+      <c r="G22" s="314"/>
+      <c r="H22" s="293">
         <v>24</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="68">
+      <c r="I22" s="294"/>
+      <c r="J22" s="293">
         <v>81</v>
       </c>
-      <c r="K22" s="69"/>
-      <c r="L22" s="68">
+      <c r="K22" s="294"/>
+      <c r="L22" s="293">
         <v>640</v>
       </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="76">
+      <c r="M22" s="310"/>
+      <c r="N22" s="294"/>
+      <c r="O22" s="315">
         <v>40</v>
       </c>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
+      <c r="P22" s="316"/>
+      <c r="Q22" s="316"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="291" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="68">
+      <c r="C23" s="292"/>
+      <c r="D23" s="293">
         <v>60</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="68">
+      <c r="E23" s="294"/>
+      <c r="F23" s="293">
         <v>86</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="68">
+      <c r="G23" s="294"/>
+      <c r="H23" s="293">
         <v>1900</v>
       </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="68">
+      <c r="I23" s="294"/>
+      <c r="J23" s="293">
         <v>7000</v>
       </c>
-      <c r="K23" s="69"/>
-      <c r="L23" s="64" t="s">
+      <c r="K23" s="294"/>
+      <c r="L23" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="73"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="74">
+      <c r="M23" s="295"/>
+      <c r="N23" s="292"/>
+      <c r="O23" s="296">
         <v>1800</v>
       </c>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
+      <c r="P23" s="297"/>
+      <c r="Q23" s="297"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="298" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
+      <c r="B24" s="298"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="298"/>
+      <c r="G24" s="298"/>
+      <c r="H24" s="298"/>
+      <c r="I24" s="298"/>
+      <c r="J24" s="298"/>
+      <c r="K24" s="298"/>
+      <c r="L24" s="298"/>
+      <c r="M24" s="298"/>
+      <c r="N24" s="298"/>
+      <c r="O24" s="298"/>
+      <c r="P24" s="298"/>
+      <c r="Q24" s="298"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85">
+      <c r="C25" s="278"/>
+      <c r="D25" s="277" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="278"/>
+      <c r="F25" s="299">
         <v>2E-3</v>
       </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87">
+      <c r="G25" s="300"/>
+      <c r="H25" s="301">
         <v>0.02</v>
       </c>
-      <c r="I25" s="88"/>
-      <c r="J25" s="87">
+      <c r="I25" s="302"/>
+      <c r="J25" s="301">
         <v>0.08</v>
       </c>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89">
+      <c r="K25" s="302"/>
+      <c r="L25" s="303">
         <v>0.2</v>
       </c>
-      <c r="M25" s="90"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="92">
+      <c r="M25" s="304"/>
+      <c r="N25" s="305"/>
+      <c r="O25" s="306">
         <v>5</v>
       </c>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
+      <c r="P25" s="307"/>
+      <c r="Q25" s="307"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="277" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="94">
+      <c r="C26" s="278"/>
+      <c r="D26" s="277" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="278"/>
+      <c r="F26" s="279">
         <v>0.5</v>
       </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96">
+      <c r="G26" s="280"/>
+      <c r="H26" s="281">
         <v>50</v>
       </c>
-      <c r="I26" s="97"/>
-      <c r="J26" s="96">
+      <c r="I26" s="282"/>
+      <c r="J26" s="281">
         <v>60</v>
       </c>
-      <c r="K26" s="97"/>
-      <c r="L26" s="96">
+      <c r="K26" s="282"/>
+      <c r="L26" s="281">
         <v>480</v>
       </c>
-      <c r="M26" s="98"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="99">
+      <c r="M26" s="283"/>
+      <c r="N26" s="282"/>
+      <c r="O26" s="288">
         <v>20</v>
       </c>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
+      <c r="P26" s="289"/>
+      <c r="Q26" s="289"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="277" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="101">
+      <c r="C27" s="278"/>
+      <c r="D27" s="277" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="278"/>
+      <c r="F27" s="286">
         <v>0.03</v>
       </c>
-      <c r="G27" s="102"/>
-      <c r="H27" s="94">
+      <c r="G27" s="287"/>
+      <c r="H27" s="279">
         <v>0.2</v>
       </c>
-      <c r="I27" s="95"/>
-      <c r="J27" s="94">
+      <c r="I27" s="280"/>
+      <c r="J27" s="279">
         <v>0.6</v>
       </c>
-      <c r="K27" s="95"/>
-      <c r="L27" s="94">
+      <c r="K27" s="280"/>
+      <c r="L27" s="279">
         <v>1.4</v>
       </c>
-      <c r="M27" s="103"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="99">
+      <c r="M27" s="290"/>
+      <c r="N27" s="280"/>
+      <c r="O27" s="288">
         <v>300</v>
       </c>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="277" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="94">
+      <c r="C28" s="278"/>
+      <c r="D28" s="277" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="278"/>
+      <c r="F28" s="279">
         <v>0.9</v>
       </c>
-      <c r="G28" s="95"/>
-      <c r="H28" s="94">
+      <c r="G28" s="280"/>
+      <c r="H28" s="279">
         <v>5.6</v>
       </c>
-      <c r="I28" s="95"/>
-      <c r="J28" s="96">
+      <c r="I28" s="280"/>
+      <c r="J28" s="281">
         <v>14</v>
       </c>
-      <c r="K28" s="97"/>
-      <c r="L28" s="96">
+      <c r="K28" s="282"/>
+      <c r="L28" s="281">
         <v>80</v>
       </c>
-      <c r="M28" s="98"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="104">
+      <c r="M28" s="283"/>
+      <c r="N28" s="282"/>
+      <c r="O28" s="284">
         <v>30</v>
       </c>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="285"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="277" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="101">
+      <c r="C29" s="278"/>
+      <c r="D29" s="277" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="278"/>
+      <c r="F29" s="286">
         <v>0.03</v>
       </c>
-      <c r="G29" s="102"/>
-      <c r="H29" s="96">
+      <c r="G29" s="287"/>
+      <c r="H29" s="281">
         <v>12</v>
       </c>
-      <c r="I29" s="97"/>
-      <c r="J29" s="94">
+      <c r="I29" s="282"/>
+      <c r="J29" s="279">
         <v>3.2</v>
       </c>
-      <c r="K29" s="95"/>
-      <c r="L29" s="96">
+      <c r="K29" s="280"/>
+      <c r="L29" s="281">
         <v>19</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="99">
+      <c r="M29" s="283"/>
+      <c r="N29" s="282"/>
+      <c r="O29" s="288">
         <v>500</v>
       </c>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
+      <c r="P29" s="289"/>
+      <c r="Q29" s="289"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="270" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
+      <c r="B30" s="270"/>
+      <c r="C30" s="270"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="270"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="270"/>
+      <c r="K30" s="270"/>
+      <c r="L30" s="270"/>
+      <c r="M30" s="270"/>
+      <c r="N30" s="270"/>
+      <c r="O30" s="270"/>
+      <c r="P30" s="270"/>
+      <c r="Q30" s="270"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109">
+      <c r="C31" s="242"/>
+      <c r="D31" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="242"/>
+      <c r="F31" s="271">
         <v>0.3</v>
       </c>
-      <c r="G31" s="110"/>
-      <c r="H31" s="111">
+      <c r="G31" s="272"/>
+      <c r="H31" s="273">
         <v>2300</v>
       </c>
-      <c r="I31" s="112"/>
-      <c r="J31" s="111">
+      <c r="I31" s="274"/>
+      <c r="J31" s="273">
         <v>4600</v>
       </c>
-      <c r="K31" s="112"/>
-      <c r="L31" s="107" t="s">
+      <c r="K31" s="274"/>
+      <c r="L31" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="114">
+      <c r="M31" s="265"/>
+      <c r="N31" s="242"/>
+      <c r="O31" s="275">
         <v>900</v>
       </c>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
+      <c r="P31" s="276"/>
+      <c r="Q31" s="276"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="241" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="116">
+      <c r="C32" s="242"/>
+      <c r="D32" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="242"/>
+      <c r="F32" s="243">
         <v>0.2</v>
       </c>
-      <c r="G32" s="117"/>
-      <c r="H32" s="116">
+      <c r="G32" s="244"/>
+      <c r="H32" s="243">
         <v>1.6</v>
       </c>
-      <c r="I32" s="117"/>
-      <c r="J32" s="118">
+      <c r="I32" s="244"/>
+      <c r="J32" s="258">
         <v>7</v>
       </c>
-      <c r="K32" s="119"/>
-      <c r="L32" s="118">
+      <c r="K32" s="259"/>
+      <c r="L32" s="258">
         <v>22</v>
       </c>
-      <c r="M32" s="120"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="121">
+      <c r="M32" s="260"/>
+      <c r="N32" s="259"/>
+      <c r="O32" s="261">
         <v>0.4</v>
       </c>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="262"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="241" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="116">
+      <c r="C33" s="242"/>
+      <c r="D33" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="242"/>
+      <c r="F33" s="243">
         <v>0.7</v>
       </c>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118">
+      <c r="G33" s="244"/>
+      <c r="H33" s="258">
         <v>2</v>
       </c>
-      <c r="I33" s="119"/>
-      <c r="J33" s="116">
+      <c r="I33" s="259"/>
+      <c r="J33" s="243">
         <v>7.2</v>
       </c>
-      <c r="K33" s="117"/>
-      <c r="L33" s="118">
+      <c r="K33" s="244"/>
+      <c r="L33" s="258">
         <v>25</v>
       </c>
-      <c r="M33" s="120"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="121">
+      <c r="M33" s="260"/>
+      <c r="N33" s="259"/>
+      <c r="O33" s="261">
         <v>0.4</v>
       </c>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
+      <c r="P33" s="262"/>
+      <c r="Q33" s="262"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="241" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="108"/>
-      <c r="F34" s="116">
+      <c r="C34" s="242"/>
+      <c r="D34" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="242"/>
+      <c r="F34" s="243">
         <v>0.8</v>
       </c>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118">
+      <c r="G34" s="244"/>
+      <c r="H34" s="258">
         <v>27</v>
       </c>
-      <c r="I34" s="119"/>
-      <c r="J34" s="118">
+      <c r="I34" s="259"/>
+      <c r="J34" s="258">
         <v>75</v>
       </c>
-      <c r="K34" s="119"/>
-      <c r="L34" s="118">
+      <c r="K34" s="259"/>
+      <c r="L34" s="258">
         <v>240</v>
       </c>
-      <c r="M34" s="120"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="121">
+      <c r="M34" s="260"/>
+      <c r="N34" s="259"/>
+      <c r="O34" s="261">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
+      <c r="P34" s="262"/>
+      <c r="Q34" s="262"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="108"/>
-      <c r="F35" s="116">
+      <c r="C35" s="242"/>
+      <c r="D35" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="242"/>
+      <c r="F35" s="243">
         <v>0.5</v>
       </c>
-      <c r="G35" s="117"/>
-      <c r="H35" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="108"/>
-      <c r="L35" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="113"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="123" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="242"/>
+      <c r="J35" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="242"/>
+      <c r="L35" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="265"/>
+      <c r="N35" s="242"/>
+      <c r="O35" s="266" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="267"/>
+      <c r="Q35" s="267"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="241" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="108"/>
-      <c r="F36" s="116">
+      <c r="C36" s="242"/>
+      <c r="D36" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="242"/>
+      <c r="F36" s="243">
         <v>0.1</v>
       </c>
-      <c r="G36" s="117"/>
-      <c r="H36" s="116">
+      <c r="G36" s="244"/>
+      <c r="H36" s="243">
         <v>0.2</v>
       </c>
-      <c r="I36" s="117"/>
-      <c r="J36" s="116">
+      <c r="I36" s="244"/>
+      <c r="J36" s="243">
         <v>0.8</v>
       </c>
-      <c r="K36" s="117"/>
-      <c r="L36" s="116">
+      <c r="K36" s="244"/>
+      <c r="L36" s="243">
         <v>2.7</v>
       </c>
-      <c r="M36" s="125"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="126">
+      <c r="M36" s="245"/>
+      <c r="N36" s="244"/>
+      <c r="O36" s="268">
         <v>0.4</v>
       </c>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
+      <c r="P36" s="269"/>
+      <c r="Q36" s="269"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="241" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="108"/>
-      <c r="F37" s="116">
+      <c r="C37" s="242"/>
+      <c r="D37" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="242"/>
+      <c r="F37" s="243">
         <v>1.6</v>
       </c>
-      <c r="G37" s="117"/>
-      <c r="H37" s="118">
+      <c r="G37" s="244"/>
+      <c r="H37" s="258">
         <v>95</v>
       </c>
-      <c r="I37" s="119"/>
-      <c r="J37" s="118">
+      <c r="I37" s="259"/>
+      <c r="J37" s="258">
         <v>600</v>
       </c>
-      <c r="K37" s="119"/>
-      <c r="L37" s="118">
+      <c r="K37" s="259"/>
+      <c r="L37" s="258">
         <v>1600</v>
       </c>
-      <c r="M37" s="120"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="128">
+      <c r="M37" s="260"/>
+      <c r="N37" s="259"/>
+      <c r="O37" s="246">
         <v>41</v>
       </c>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="129"/>
+      <c r="P37" s="247"/>
+      <c r="Q37" s="247"/>
     </row>
     <row r="38" spans="1:18" ht="15" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="108"/>
-      <c r="F38" s="116">
+      <c r="C38" s="242"/>
+      <c r="D38" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="242"/>
+      <c r="F38" s="243">
         <v>0.2</v>
       </c>
-      <c r="G38" s="117"/>
-      <c r="H38" s="116">
+      <c r="G38" s="244"/>
+      <c r="H38" s="243">
         <v>0.3</v>
       </c>
-      <c r="I38" s="117"/>
-      <c r="J38" s="116">
+      <c r="I38" s="244"/>
+      <c r="J38" s="243">
         <v>0.8</v>
       </c>
-      <c r="K38" s="117"/>
-      <c r="L38" s="116">
+      <c r="K38" s="244"/>
+      <c r="L38" s="243">
         <v>2.9</v>
       </c>
-      <c r="M38" s="125"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="130">
+      <c r="M38" s="245"/>
+      <c r="N38" s="244"/>
+      <c r="O38" s="263">
         <v>0.04</v>
       </c>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
+      <c r="P38" s="264"/>
+      <c r="Q38" s="264"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="133"/>
-      <c r="D39" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="108"/>
-      <c r="F39" s="116">
+      <c r="B39" s="256" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="257"/>
+      <c r="D39" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="242"/>
+      <c r="F39" s="243">
         <v>3.6</v>
       </c>
-      <c r="G39" s="117"/>
-      <c r="H39" s="118">
+      <c r="G39" s="244"/>
+      <c r="H39" s="258">
         <v>15</v>
       </c>
-      <c r="I39" s="119"/>
-      <c r="J39" s="118">
+      <c r="I39" s="259"/>
+      <c r="J39" s="258">
         <v>40</v>
       </c>
-      <c r="K39" s="119"/>
-      <c r="L39" s="118">
+      <c r="K39" s="259"/>
+      <c r="L39" s="258">
         <v>95</v>
       </c>
-      <c r="M39" s="120"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="128">
+      <c r="M39" s="260"/>
+      <c r="N39" s="259"/>
+      <c r="O39" s="246">
         <v>140</v>
       </c>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="129"/>
+      <c r="P39" s="247"/>
+      <c r="Q39" s="247"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="241" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="108"/>
-      <c r="D40" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="108"/>
-      <c r="F40" s="116">
+      <c r="C40" s="242"/>
+      <c r="D40" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="242"/>
+      <c r="F40" s="243">
         <v>0.4</v>
       </c>
-      <c r="G40" s="117"/>
-      <c r="H40" s="116">
+      <c r="G40" s="244"/>
+      <c r="H40" s="243">
         <v>3.4</v>
       </c>
-      <c r="I40" s="117"/>
-      <c r="J40" s="118">
+      <c r="I40" s="244"/>
+      <c r="J40" s="258">
         <v>8</v>
       </c>
-      <c r="K40" s="119"/>
-      <c r="L40" s="118">
+      <c r="K40" s="259"/>
+      <c r="L40" s="258">
         <v>30</v>
       </c>
-      <c r="M40" s="120"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="121">
+      <c r="M40" s="260"/>
+      <c r="N40" s="259"/>
+      <c r="O40" s="261">
         <v>0.4</v>
       </c>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="122"/>
+      <c r="P40" s="262"/>
+      <c r="Q40" s="262"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="108"/>
-      <c r="F41" s="116">
+      <c r="C41" s="242"/>
+      <c r="D41" s="241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="242"/>
+      <c r="F41" s="243">
         <v>0.7</v>
       </c>
-      <c r="G41" s="117"/>
-      <c r="H41" s="116">
+      <c r="G41" s="244"/>
+      <c r="H41" s="243">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I41" s="117"/>
-      <c r="J41" s="116">
+      <c r="I41" s="244"/>
+      <c r="J41" s="243">
         <v>1.8</v>
       </c>
-      <c r="K41" s="117"/>
-      <c r="L41" s="116">
+      <c r="K41" s="244"/>
+      <c r="L41" s="243">
         <v>5.9</v>
       </c>
-      <c r="M41" s="125"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="128">
+      <c r="M41" s="245"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="246">
         <v>60</v>
       </c>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="129"/>
+      <c r="P41" s="247"/>
+      <c r="Q41" s="247"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="248" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="134"/>
-      <c r="P42" s="134"/>
-      <c r="Q42" s="134"/>
-      <c r="R42" s="134"/>
+      <c r="B42" s="248"/>
+      <c r="C42" s="248"/>
+      <c r="D42" s="248"/>
+      <c r="E42" s="248"/>
+      <c r="F42" s="248"/>
+      <c r="G42" s="248"/>
+      <c r="H42" s="248"/>
+      <c r="I42" s="248"/>
+      <c r="J42" s="248"/>
+      <c r="K42" s="248"/>
+      <c r="L42" s="248"/>
+      <c r="M42" s="248"/>
+      <c r="N42" s="248"/>
+      <c r="O42" s="248"/>
+      <c r="P42" s="248"/>
+      <c r="Q42" s="248"/>
+      <c r="R42" s="248"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1">
-      <c r="A43" s="135" t="s">
+      <c r="A43" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="136"/>
-      <c r="C43" s="137" t="s">
+      <c r="B43" s="212"/>
+      <c r="C43" s="249" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="138"/>
-      <c r="E43" s="137" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="138"/>
-      <c r="G43" s="139">
+      <c r="D43" s="250"/>
+      <c r="E43" s="249" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="250"/>
+      <c r="G43" s="251">
         <v>0.3</v>
       </c>
-      <c r="H43" s="140"/>
-      <c r="I43" s="139">
+      <c r="H43" s="252"/>
+      <c r="I43" s="251">
         <v>1.6</v>
       </c>
-      <c r="J43" s="140"/>
-      <c r="K43" s="139">
+      <c r="J43" s="252"/>
+      <c r="K43" s="251">
         <v>1.3</v>
       </c>
-      <c r="L43" s="140"/>
-      <c r="M43" s="139">
+      <c r="L43" s="252"/>
+      <c r="M43" s="251">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N43" s="141"/>
-      <c r="O43" s="140"/>
-      <c r="P43" s="142">
+      <c r="N43" s="253"/>
+      <c r="O43" s="252"/>
+      <c r="P43" s="254">
         <v>120</v>
       </c>
-      <c r="Q43" s="143"/>
-      <c r="R43" s="143"/>
+      <c r="Q43" s="255"/>
+      <c r="R43" s="255"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1">
-      <c r="A44" s="135" t="s">
+      <c r="A44" s="211" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="136"/>
-      <c r="C44" s="144" t="s">
+      <c r="B44" s="212"/>
+      <c r="C44" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="145"/>
-      <c r="E44" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="145"/>
-      <c r="G44" s="146">
+      <c r="D44" s="214"/>
+      <c r="E44" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="214"/>
+      <c r="G44" s="217">
         <v>0.7</v>
       </c>
-      <c r="H44" s="147"/>
-      <c r="I44" s="146">
+      <c r="H44" s="218"/>
+      <c r="I44" s="217">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J44" s="147"/>
-      <c r="K44" s="148">
+      <c r="J44" s="218"/>
+      <c r="K44" s="229">
         <v>11</v>
       </c>
-      <c r="L44" s="149"/>
-      <c r="M44" s="148">
+      <c r="L44" s="230"/>
+      <c r="M44" s="229">
         <v>84</v>
       </c>
-      <c r="N44" s="150"/>
-      <c r="O44" s="149"/>
-      <c r="P44" s="151">
+      <c r="N44" s="240"/>
+      <c r="O44" s="230"/>
+      <c r="P44" s="236">
         <v>1000</v>
       </c>
-      <c r="Q44" s="152"/>
-      <c r="R44" s="152"/>
+      <c r="Q44" s="237"/>
+      <c r="R44" s="237"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1">
-      <c r="A45" s="135" t="s">
+      <c r="A45" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="136"/>
-      <c r="C45" s="144" t="s">
+      <c r="B45" s="212"/>
+      <c r="C45" s="213" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="145"/>
-      <c r="G45" s="146">
+      <c r="D45" s="214"/>
+      <c r="E45" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="214"/>
+      <c r="G45" s="217">
         <v>0.4</v>
       </c>
-      <c r="H45" s="147"/>
-      <c r="I45" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="145"/>
-      <c r="K45" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="L45" s="145"/>
-      <c r="M45" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="153"/>
-      <c r="O45" s="145"/>
-      <c r="P45" s="154" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="155"/>
-      <c r="R45" s="155"/>
+      <c r="H45" s="218"/>
+      <c r="I45" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="214"/>
+      <c r="K45" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="214"/>
+      <c r="M45" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="224"/>
+      <c r="O45" s="214"/>
+      <c r="P45" s="227" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q45" s="228"/>
+      <c r="R45" s="228"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1">
-      <c r="A46" s="135" t="s">
+      <c r="A46" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="136"/>
-      <c r="C46" s="144" t="s">
+      <c r="B46" s="212"/>
+      <c r="C46" s="213" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="145"/>
-      <c r="G46" s="146">
+      <c r="D46" s="214"/>
+      <c r="E46" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="214"/>
+      <c r="G46" s="217">
         <v>0.1</v>
       </c>
-      <c r="H46" s="147"/>
-      <c r="I46" s="146">
+      <c r="H46" s="218"/>
+      <c r="I46" s="217">
         <v>0.3</v>
       </c>
-      <c r="J46" s="147"/>
-      <c r="K46" s="146">
+      <c r="J46" s="218"/>
+      <c r="K46" s="217">
         <v>0.6</v>
       </c>
-      <c r="L46" s="147"/>
-      <c r="M46" s="146">
+      <c r="L46" s="218"/>
+      <c r="M46" s="217">
         <v>2.1</v>
       </c>
-      <c r="N46" s="156"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="151">
+      <c r="N46" s="219"/>
+      <c r="O46" s="218"/>
+      <c r="P46" s="236">
         <v>300</v>
       </c>
-      <c r="Q46" s="152"/>
-      <c r="R46" s="152"/>
+      <c r="Q46" s="237"/>
+      <c r="R46" s="237"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1">
-      <c r="A47" s="135" t="s">
+      <c r="A47" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="144" t="s">
+      <c r="B47" s="212"/>
+      <c r="C47" s="213" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="145"/>
-      <c r="G47" s="157">
+      <c r="D47" s="214"/>
+      <c r="E47" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="214"/>
+      <c r="G47" s="215">
         <v>0.01</v>
       </c>
-      <c r="H47" s="158"/>
-      <c r="I47" s="146">
+      <c r="H47" s="216"/>
+      <c r="I47" s="217">
         <v>0.4</v>
       </c>
-      <c r="J47" s="147"/>
-      <c r="K47" s="146">
+      <c r="J47" s="218"/>
+      <c r="K47" s="217">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L47" s="147"/>
-      <c r="M47" s="146">
+      <c r="L47" s="218"/>
+      <c r="M47" s="217">
         <v>6.1</v>
       </c>
-      <c r="N47" s="156"/>
-      <c r="O47" s="147"/>
-      <c r="P47" s="159"/>
-      <c r="Q47" s="160"/>
-      <c r="R47" s="160"/>
+      <c r="N47" s="219"/>
+      <c r="O47" s="218"/>
+      <c r="P47" s="238"/>
+      <c r="Q47" s="239"/>
+      <c r="R47" s="239"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1">
-      <c r="A48" s="135" t="s">
+      <c r="A48" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="136"/>
-      <c r="C48" s="144" t="s">
+      <c r="B48" s="212"/>
+      <c r="C48" s="363" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="214"/>
+      <c r="E48" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="214"/>
+      <c r="G48" s="215">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="216"/>
+      <c r="I48" s="217">
+        <v>0.4</v>
+      </c>
+      <c r="J48" s="218"/>
+      <c r="K48" s="229">
+        <v>1</v>
+      </c>
+      <c r="L48" s="230"/>
+      <c r="M48" s="217">
+        <v>8.4</v>
+      </c>
+      <c r="N48" s="219"/>
+      <c r="O48" s="218"/>
+      <c r="P48" s="231" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="145"/>
-      <c r="G48" s="157">
+      <c r="Q48" s="232"/>
+      <c r="R48" s="232"/>
+    </row>
+    <row r="49" spans="1:18" ht="15" customHeight="1">
+      <c r="A49" s="233" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="212"/>
+      <c r="C49" s="213" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="214"/>
+      <c r="E49" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="214"/>
+      <c r="G49" s="217">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="218"/>
+      <c r="I49" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="214"/>
+      <c r="K49" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="214"/>
+      <c r="M49" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" s="224"/>
+      <c r="O49" s="214"/>
+      <c r="P49" s="234"/>
+      <c r="Q49" s="235"/>
+      <c r="R49" s="235"/>
+    </row>
+    <row r="50" spans="1:18" ht="15" customHeight="1">
+      <c r="A50" s="211" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="212"/>
+      <c r="C50" s="213" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="214"/>
+      <c r="E50" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="214"/>
+      <c r="G50" s="222">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H50" s="223"/>
+      <c r="I50" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="214"/>
+      <c r="K50" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="214"/>
+      <c r="M50" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" s="224"/>
+      <c r="O50" s="214"/>
+      <c r="P50" s="225" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q50" s="226"/>
+      <c r="R50" s="226"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" customHeight="1">
+      <c r="A51" s="211" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="212"/>
+      <c r="C51" s="213" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="214"/>
+      <c r="E51" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="214"/>
+      <c r="G51" s="222">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H51" s="223"/>
+      <c r="I51" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="214"/>
+      <c r="K51" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="214"/>
+      <c r="M51" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" s="224"/>
+      <c r="O51" s="214"/>
+      <c r="P51" s="227" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q51" s="228"/>
+      <c r="R51" s="228"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" customHeight="1">
+      <c r="A52" s="211" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="212"/>
+      <c r="C52" s="213" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="214"/>
+      <c r="E52" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="214"/>
+      <c r="G52" s="215">
         <v>0.01</v>
       </c>
-      <c r="H48" s="158"/>
-      <c r="I48" s="146">
+      <c r="H52" s="216"/>
+      <c r="I52" s="217">
+        <v>0.3</v>
+      </c>
+      <c r="J52" s="218"/>
+      <c r="K52" s="217">
+        <v>0.6</v>
+      </c>
+      <c r="L52" s="218"/>
+      <c r="M52" s="217">
+        <v>3.6</v>
+      </c>
+      <c r="N52" s="219"/>
+      <c r="O52" s="218"/>
+      <c r="P52" s="220">
+        <v>1.8</v>
+      </c>
+      <c r="Q52" s="221"/>
+      <c r="R52" s="221"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" customHeight="1">
+      <c r="A53" s="211" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="212"/>
+      <c r="C53" s="213" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="214"/>
+      <c r="E53" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="214"/>
+      <c r="G53" s="215">
+        <v>0.02</v>
+      </c>
+      <c r="H53" s="216"/>
+      <c r="I53" s="217">
+        <v>0.2</v>
+      </c>
+      <c r="J53" s="218"/>
+      <c r="K53" s="217">
+        <v>1.3</v>
+      </c>
+      <c r="L53" s="218"/>
+      <c r="M53" s="217">
+        <v>3.4</v>
+      </c>
+      <c r="N53" s="219"/>
+      <c r="O53" s="218"/>
+      <c r="P53" s="220">
+        <v>0.2</v>
+      </c>
+      <c r="Q53" s="221"/>
+      <c r="R53" s="221"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" customHeight="1">
+      <c r="A54" s="204" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="204"/>
+      <c r="C54" s="204"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="204"/>
+      <c r="F54" s="204"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="204"/>
+      <c r="J54" s="204"/>
+      <c r="K54" s="204"/>
+      <c r="L54" s="204"/>
+      <c r="M54" s="204"/>
+      <c r="N54" s="204"/>
+      <c r="O54" s="204"/>
+      <c r="P54" s="204"/>
+      <c r="Q54" s="204"/>
+      <c r="R54" s="204"/>
+    </row>
+    <row r="55" spans="1:18" ht="15" customHeight="1">
+      <c r="A55" s="192" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="192"/>
+      <c r="C55" s="205" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="205"/>
+      <c r="E55" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="205"/>
+      <c r="G55" s="206">
+        <v>0.02</v>
+      </c>
+      <c r="H55" s="206"/>
+      <c r="I55" s="207">
+        <v>0.1</v>
+      </c>
+      <c r="J55" s="207"/>
+      <c r="K55" s="207">
+        <v>0.6</v>
+      </c>
+      <c r="L55" s="207"/>
+      <c r="M55" s="207">
+        <v>1.7</v>
+      </c>
+      <c r="N55" s="207"/>
+      <c r="O55" s="208"/>
+      <c r="P55" s="209">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="210"/>
+      <c r="R55" s="210"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" customHeight="1">
+      <c r="A56" s="192" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="192"/>
+      <c r="C56" s="193" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="193"/>
+      <c r="E56" s="193" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="193"/>
+      <c r="G56" s="194">
+        <v>1E-3</v>
+      </c>
+      <c r="H56" s="194"/>
+      <c r="I56" s="195">
+        <v>0.01</v>
+      </c>
+      <c r="J56" s="195"/>
+      <c r="K56" s="195">
+        <v>0.03</v>
+      </c>
+      <c r="L56" s="195"/>
+      <c r="M56" s="195">
+        <v>0.09</v>
+      </c>
+      <c r="N56" s="195"/>
+      <c r="O56" s="196"/>
+      <c r="P56" s="197">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="198"/>
+      <c r="R56" s="198"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" customHeight="1">
+      <c r="A57" s="192" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="192"/>
+      <c r="C57" s="193" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="193"/>
+      <c r="E57" s="193" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="193"/>
+      <c r="G57" s="199">
+        <v>0.2</v>
+      </c>
+      <c r="H57" s="199"/>
+      <c r="I57" s="200">
+        <v>140</v>
+      </c>
+      <c r="J57" s="200"/>
+      <c r="K57" s="200">
+        <v>120</v>
+      </c>
+      <c r="L57" s="200"/>
+      <c r="M57" s="200">
+        <v>690</v>
+      </c>
+      <c r="N57" s="200"/>
+      <c r="O57" s="201"/>
+      <c r="P57" s="202">
+        <v>2000</v>
+      </c>
+      <c r="Q57" s="203"/>
+      <c r="R57" s="203"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" customHeight="1">
+      <c r="A58" s="183" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="183"/>
+      <c r="C58" s="183"/>
+      <c r="D58" s="183"/>
+      <c r="E58" s="183"/>
+      <c r="F58" s="183"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="183"/>
+      <c r="J58" s="183"/>
+      <c r="K58" s="183"/>
+      <c r="L58" s="183"/>
+      <c r="M58" s="183"/>
+      <c r="N58" s="183"/>
+      <c r="O58" s="183"/>
+      <c r="P58" s="183"/>
+      <c r="Q58" s="183"/>
+      <c r="R58" s="183"/>
+    </row>
+    <row r="59" spans="1:18" ht="15" customHeight="1">
+      <c r="A59" s="165" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="165"/>
+      <c r="C59" s="184" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="184"/>
+      <c r="E59" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="185"/>
+      <c r="G59" s="186">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H59" s="186"/>
+      <c r="I59" s="187">
+        <v>1E-3</v>
+      </c>
+      <c r="J59" s="187"/>
+      <c r="K59" s="188">
+        <v>0.01</v>
+      </c>
+      <c r="L59" s="188"/>
+      <c r="M59" s="188">
+        <v>0.03</v>
+      </c>
+      <c r="N59" s="188"/>
+      <c r="O59" s="189"/>
+      <c r="P59" s="190">
+        <v>0.5</v>
+      </c>
+      <c r="Q59" s="191"/>
+      <c r="R59" s="191"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" customHeight="1">
+      <c r="A60" s="165" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="165"/>
+      <c r="C60" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="167"/>
+      <c r="G60" s="174">
+        <v>0.04</v>
+      </c>
+      <c r="H60" s="174"/>
+      <c r="I60" s="170">
+        <v>2.8</v>
+      </c>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170">
+        <v>3.8</v>
+      </c>
+      <c r="L60" s="170"/>
+      <c r="M60" s="177">
+        <v>22</v>
+      </c>
+      <c r="N60" s="177"/>
+      <c r="O60" s="178"/>
+      <c r="P60" s="175">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="176"/>
+      <c r="R60" s="176"/>
+    </row>
+    <row r="61" spans="1:18" ht="15" customHeight="1">
+      <c r="A61" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="165"/>
+      <c r="C61" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="167"/>
+      <c r="E61" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="167"/>
+      <c r="G61" s="174">
+        <v>0.01</v>
+      </c>
+      <c r="H61" s="174"/>
+      <c r="I61" s="169">
+        <v>0.08</v>
+      </c>
+      <c r="J61" s="169"/>
+      <c r="K61" s="170">
+        <v>0.2</v>
+      </c>
+      <c r="L61" s="170"/>
+      <c r="M61" s="170">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N61" s="170"/>
+      <c r="O61" s="171"/>
+      <c r="P61" s="179" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q61" s="180"/>
+      <c r="R61" s="180"/>
+    </row>
+    <row r="62" spans="1:18" ht="15" customHeight="1">
+      <c r="A62" s="165" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="165"/>
+      <c r="C62" s="167" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="167"/>
+      <c r="G62" s="174">
+        <v>0.03</v>
+      </c>
+      <c r="H62" s="174"/>
+      <c r="I62" s="170">
+        <v>0.7</v>
+      </c>
+      <c r="J62" s="170"/>
+      <c r="K62" s="177">
+        <v>1</v>
+      </c>
+      <c r="L62" s="177"/>
+      <c r="M62" s="170">
+        <v>5.4</v>
+      </c>
+      <c r="N62" s="170"/>
+      <c r="O62" s="171"/>
+      <c r="P62" s="181"/>
+      <c r="Q62" s="182"/>
+      <c r="R62" s="182"/>
+    </row>
+    <row r="63" spans="1:18" ht="15" customHeight="1">
+      <c r="A63" s="165" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="165"/>
+      <c r="C63" s="166" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="166"/>
+      <c r="E63" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="167"/>
+      <c r="G63" s="168">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H63" s="168"/>
+      <c r="I63" s="169">
+        <v>0.03</v>
+      </c>
+      <c r="J63" s="169"/>
+      <c r="K63" s="169">
+        <v>0.04</v>
+      </c>
+      <c r="L63" s="169"/>
+      <c r="M63" s="170">
+        <v>0.2</v>
+      </c>
+      <c r="N63" s="170"/>
+      <c r="O63" s="171"/>
+      <c r="P63" s="172">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="173"/>
+      <c r="R63" s="173"/>
+    </row>
+    <row r="64" spans="1:18" ht="15" customHeight="1">
+      <c r="A64" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="165"/>
+      <c r="C64" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="167"/>
+      <c r="E64" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="167"/>
+      <c r="G64" s="174">
+        <v>0.03</v>
+      </c>
+      <c r="H64" s="174"/>
+      <c r="I64" s="170">
+        <v>0.6</v>
+      </c>
+      <c r="J64" s="170"/>
+      <c r="K64" s="170">
+        <v>0.8</v>
+      </c>
+      <c r="L64" s="170"/>
+      <c r="M64" s="170">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N64" s="170"/>
+      <c r="O64" s="171"/>
+      <c r="P64" s="175">
+        <v>40</v>
+      </c>
+      <c r="Q64" s="176"/>
+      <c r="R64" s="176"/>
+    </row>
+    <row r="65" spans="1:18" ht="15" customHeight="1">
+      <c r="A65" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="157"/>
+      <c r="P65" s="157"/>
+      <c r="Q65" s="157"/>
+      <c r="R65" s="157"/>
+    </row>
+    <row r="66" spans="1:18" ht="15" customHeight="1">
+      <c r="A66" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="148"/>
+      <c r="C66" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="158"/>
+      <c r="E66" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="159"/>
+      <c r="G66" s="160">
+        <v>0.02</v>
+      </c>
+      <c r="H66" s="160"/>
+      <c r="I66" s="161">
+        <v>0.1</v>
+      </c>
+      <c r="J66" s="161"/>
+      <c r="K66" s="161">
         <v>0.4</v>
       </c>
-      <c r="J48" s="147"/>
-      <c r="K48" s="148">
+      <c r="L66" s="161"/>
+      <c r="M66" s="161">
+        <v>2.1</v>
+      </c>
+      <c r="N66" s="161"/>
+      <c r="O66" s="162"/>
+      <c r="P66" s="163">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="164"/>
+      <c r="R66" s="164"/>
+    </row>
+    <row r="67" spans="1:18" ht="15" customHeight="1">
+      <c r="A67" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="148"/>
+      <c r="C67" s="149" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="149"/>
+      <c r="G67" s="150">
+        <v>0.06</v>
+      </c>
+      <c r="H67" s="150"/>
+      <c r="I67" s="151">
+        <v>0.1</v>
+      </c>
+      <c r="J67" s="151"/>
+      <c r="K67" s="151">
+        <v>0.8</v>
+      </c>
+      <c r="L67" s="151"/>
+      <c r="M67" s="151">
+        <v>4.5</v>
+      </c>
+      <c r="N67" s="151"/>
+      <c r="O67" s="152"/>
+      <c r="P67" s="153">
+        <v>300</v>
+      </c>
+      <c r="Q67" s="154"/>
+      <c r="R67" s="154"/>
+    </row>
+    <row r="68" spans="1:18" ht="15" customHeight="1">
+      <c r="A68" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="148"/>
+      <c r="C68" s="149" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="149"/>
+      <c r="G68" s="155">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H68" s="155"/>
+      <c r="I68" s="156">
+        <v>0.03</v>
+      </c>
+      <c r="J68" s="156"/>
+      <c r="K68" s="151">
+        <v>0.1</v>
+      </c>
+      <c r="L68" s="151"/>
+      <c r="M68" s="151">
+        <v>0.4</v>
+      </c>
+      <c r="N68" s="151"/>
+      <c r="O68" s="152"/>
+      <c r="P68" s="153">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="154"/>
+      <c r="R68" s="154"/>
+    </row>
+    <row r="69" spans="1:18" ht="15" customHeight="1">
+      <c r="A69" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="141"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="141"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="141"/>
+      <c r="H69" s="141"/>
+      <c r="I69" s="141"/>
+      <c r="J69" s="141"/>
+      <c r="K69" s="141"/>
+      <c r="L69" s="141"/>
+      <c r="M69" s="141"/>
+      <c r="N69" s="141"/>
+      <c r="O69" s="141"/>
+      <c r="P69" s="141"/>
+      <c r="Q69" s="141"/>
+      <c r="R69" s="141"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" customHeight="1">
+      <c r="A70" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="123"/>
+      <c r="C70" s="142" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="142"/>
+      <c r="E70" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="142"/>
+      <c r="G70" s="143">
+        <v>0.06</v>
+      </c>
+      <c r="H70" s="143"/>
+      <c r="I70" s="144">
+        <v>0.6</v>
+      </c>
+      <c r="J70" s="144"/>
+      <c r="K70" s="144">
+        <v>1.7</v>
+      </c>
+      <c r="L70" s="144"/>
+      <c r="M70" s="144">
+        <v>9.4</v>
+      </c>
+      <c r="N70" s="144"/>
+      <c r="O70" s="145"/>
+      <c r="P70" s="146">
+        <v>30</v>
+      </c>
+      <c r="Q70" s="147"/>
+      <c r="R70" s="147"/>
+    </row>
+    <row r="71" spans="1:18" ht="15" customHeight="1">
+      <c r="A71" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="123"/>
+      <c r="C71" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="124"/>
+      <c r="G71" s="138">
+        <v>0.03</v>
+      </c>
+      <c r="H71" s="138"/>
+      <c r="I71" s="127">
+        <v>0.5</v>
+      </c>
+      <c r="J71" s="127"/>
+      <c r="K71" s="127">
+        <v>1.5</v>
+      </c>
+      <c r="L71" s="127"/>
+      <c r="M71" s="127">
+        <v>8.5</v>
+      </c>
+      <c r="N71" s="127"/>
+      <c r="O71" s="128"/>
+      <c r="P71" s="139">
+        <v>200</v>
+      </c>
+      <c r="Q71" s="140"/>
+      <c r="R71" s="140"/>
+    </row>
+    <row r="72" spans="1:18" ht="15" customHeight="1">
+      <c r="A72" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="123"/>
+      <c r="C72" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="124"/>
+      <c r="G72" s="125">
+        <v>0.05</v>
+      </c>
+      <c r="H72" s="125"/>
+      <c r="I72" s="132">
         <v>1</v>
       </c>
-      <c r="L48" s="149"/>
-      <c r="M48" s="146">
-        <v>8.4</v>
-      </c>
-      <c r="N48" s="156"/>
-      <c r="O48" s="147"/>
-      <c r="P48" s="161" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q48" s="162"/>
-      <c r="R48" s="162"/>
-    </row>
-    <row r="49" spans="1:18" ht="15" customHeight="1">
-      <c r="A49" s="163" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="136"/>
-      <c r="C49" s="144" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="145"/>
-      <c r="G49" s="146">
-        <v>0.5</v>
-      </c>
-      <c r="H49" s="147"/>
-      <c r="I49" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="145"/>
-      <c r="K49" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" s="145"/>
-      <c r="M49" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="N49" s="153"/>
-      <c r="O49" s="145"/>
-      <c r="P49" s="164"/>
-      <c r="Q49" s="165"/>
-      <c r="R49" s="165"/>
-    </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1">
-      <c r="A50" s="135" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="136"/>
-      <c r="C50" s="144" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="145"/>
-      <c r="E50" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="145"/>
-      <c r="G50" s="166">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H50" s="167"/>
-      <c r="I50" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="145"/>
-      <c r="K50" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="145"/>
-      <c r="M50" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="N50" s="153"/>
-      <c r="O50" s="145"/>
-      <c r="P50" s="168" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q50" s="169"/>
-      <c r="R50" s="169"/>
-    </row>
-    <row r="51" spans="1:18" ht="15" customHeight="1">
-      <c r="A51" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="136"/>
-      <c r="C51" s="144" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="145"/>
-      <c r="E51" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="145"/>
-      <c r="G51" s="166">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H51" s="167"/>
-      <c r="I51" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" s="145"/>
-      <c r="K51" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" s="145"/>
-      <c r="M51" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="N51" s="153"/>
-      <c r="O51" s="145"/>
-      <c r="P51" s="154" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q51" s="155"/>
-      <c r="R51" s="155"/>
-    </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1">
-      <c r="A52" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="136"/>
-      <c r="C52" s="144" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="145"/>
-      <c r="E52" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="145"/>
-      <c r="G52" s="157">
+      <c r="J72" s="132"/>
+      <c r="K72" s="132">
+        <v>3</v>
+      </c>
+      <c r="L72" s="132"/>
+      <c r="M72" s="132">
+        <v>6</v>
+      </c>
+      <c r="N72" s="132"/>
+      <c r="O72" s="133"/>
+      <c r="P72" s="134">
+        <v>10.5</v>
+      </c>
+      <c r="Q72" s="135"/>
+      <c r="R72" s="135"/>
+    </row>
+    <row r="73" spans="1:18" ht="15" customHeight="1">
+      <c r="A73" s="136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="123"/>
+      <c r="C73" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="124"/>
+      <c r="G73" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="H73" s="127"/>
+      <c r="I73" s="132">
+        <v>68</v>
+      </c>
+      <c r="J73" s="132"/>
+      <c r="K73" s="132">
+        <v>170</v>
+      </c>
+      <c r="L73" s="132"/>
+      <c r="M73" s="132">
+        <v>960</v>
+      </c>
+      <c r="N73" s="132"/>
+      <c r="O73" s="133"/>
+      <c r="P73" s="129">
+        <v>600</v>
+      </c>
+      <c r="Q73" s="130"/>
+      <c r="R73" s="130"/>
+    </row>
+    <row r="74" spans="1:18" ht="15" customHeight="1">
+      <c r="A74" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="123"/>
+      <c r="C74" s="137" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" s="137"/>
+      <c r="E74" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="124"/>
+      <c r="G74" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="H74" s="127"/>
+      <c r="I74" s="127">
+        <v>0.6</v>
+      </c>
+      <c r="J74" s="127"/>
+      <c r="K74" s="127">
+        <v>1.6</v>
+      </c>
+      <c r="L74" s="127"/>
+      <c r="M74" s="127">
+        <v>9.6</v>
+      </c>
+      <c r="N74" s="127"/>
+      <c r="O74" s="128"/>
+      <c r="P74" s="129">
+        <v>200</v>
+      </c>
+      <c r="Q74" s="130"/>
+      <c r="R74" s="130"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" customHeight="1">
+      <c r="A75" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="123"/>
+      <c r="C75" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="124"/>
+      <c r="G75" s="125">
+        <v>0.09</v>
+      </c>
+      <c r="H75" s="125"/>
+      <c r="I75" s="132">
+        <v>7</v>
+      </c>
+      <c r="J75" s="132"/>
+      <c r="K75" s="132">
+        <v>25</v>
+      </c>
+      <c r="L75" s="132"/>
+      <c r="M75" s="132">
+        <v>50</v>
+      </c>
+      <c r="N75" s="132"/>
+      <c r="O75" s="133"/>
+      <c r="P75" s="134">
+        <v>10.5</v>
+      </c>
+      <c r="Q75" s="135"/>
+      <c r="R75" s="135"/>
+    </row>
+    <row r="76" spans="1:18" ht="15" customHeight="1">
+      <c r="A76" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="123"/>
+      <c r="C76" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="124"/>
+      <c r="G76" s="125">
         <v>0.01</v>
       </c>
-      <c r="H52" s="158"/>
-      <c r="I52" s="146">
-        <v>0.3</v>
-      </c>
-      <c r="J52" s="147"/>
-      <c r="K52" s="146">
+      <c r="H76" s="125"/>
+      <c r="I76" s="132">
+        <v>34</v>
+      </c>
+      <c r="J76" s="132"/>
+      <c r="K76" s="132">
+        <v>85</v>
+      </c>
+      <c r="L76" s="132"/>
+      <c r="M76" s="132">
+        <v>480</v>
+      </c>
+      <c r="N76" s="132"/>
+      <c r="O76" s="133"/>
+      <c r="P76" s="129">
+        <v>180</v>
+      </c>
+      <c r="Q76" s="130"/>
+      <c r="R76" s="130"/>
+    </row>
+    <row r="77" spans="1:18" ht="15" customHeight="1">
+      <c r="A77" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="123"/>
+      <c r="C77" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="124"/>
+      <c r="E77" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="124"/>
+      <c r="G77" s="125">
+        <v>0.01</v>
+      </c>
+      <c r="H77" s="125"/>
+      <c r="I77" s="126">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J77" s="126"/>
+      <c r="K77" s="127">
         <v>0.6</v>
       </c>
-      <c r="L52" s="147"/>
-      <c r="M52" s="146">
-        <v>3.6</v>
-      </c>
-      <c r="N52" s="156"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="170">
-        <v>1.8</v>
-      </c>
-      <c r="Q52" s="171"/>
-      <c r="R52" s="171"/>
-    </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1">
-      <c r="A53" s="135" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="136"/>
-      <c r="C53" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="145"/>
-      <c r="E53" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="145"/>
-      <c r="G53" s="157">
-        <v>0.02</v>
-      </c>
-      <c r="H53" s="158"/>
-      <c r="I53" s="146">
+      <c r="L77" s="127"/>
+      <c r="M77" s="127">
+        <v>1.9</v>
+      </c>
+      <c r="N77" s="127"/>
+      <c r="O77" s="128"/>
+      <c r="P77" s="129">
+        <v>9</v>
+      </c>
+      <c r="Q77" s="130"/>
+      <c r="R77" s="130"/>
+    </row>
+    <row r="78" spans="1:18" ht="15" customHeight="1">
+      <c r="A78" s="131" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="131"/>
+      <c r="C78" s="131"/>
+      <c r="D78" s="131"/>
+      <c r="E78" s="131"/>
+      <c r="F78" s="131"/>
+      <c r="G78" s="131"/>
+      <c r="H78" s="131"/>
+      <c r="I78" s="131"/>
+      <c r="J78" s="131"/>
+      <c r="K78" s="131"/>
+      <c r="L78" s="131"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="131"/>
+      <c r="O78" s="131"/>
+      <c r="P78" s="131"/>
+      <c r="Q78" s="131"/>
+      <c r="R78" s="131"/>
+    </row>
+    <row r="79" spans="1:18" ht="15" customHeight="1">
+      <c r="A79" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="104"/>
+      <c r="C79" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="113"/>
+      <c r="E79" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="113"/>
+      <c r="G79" s="114">
         <v>0.2</v>
       </c>
-      <c r="J53" s="147"/>
-      <c r="K53" s="146">
-        <v>1.3</v>
-      </c>
-      <c r="L53" s="147"/>
-      <c r="M53" s="146">
-        <v>3.4</v>
-      </c>
-      <c r="N53" s="156"/>
-      <c r="O53" s="147"/>
-      <c r="P53" s="170">
+      <c r="H79" s="114"/>
+      <c r="I79" s="115">
+        <v>14</v>
+      </c>
+      <c r="J79" s="115"/>
+      <c r="K79" s="115">
+        <v>33</v>
+      </c>
+      <c r="L79" s="115"/>
+      <c r="M79" s="115">
+        <v>190</v>
+      </c>
+      <c r="N79" s="115"/>
+      <c r="O79" s="116"/>
+      <c r="P79" s="117">
+        <v>600</v>
+      </c>
+      <c r="Q79" s="118"/>
+      <c r="R79" s="118"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" customHeight="1">
+      <c r="A80" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="104"/>
+      <c r="C80" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="105"/>
+      <c r="G80" s="119">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H80" s="119"/>
+      <c r="I80" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="105"/>
+      <c r="K80" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="105"/>
+      <c r="M80" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="N80" s="105"/>
+      <c r="O80" s="120"/>
+      <c r="P80" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q80" s="122"/>
+      <c r="R80" s="122"/>
+    </row>
+    <row r="81" spans="1:18" ht="15" customHeight="1">
+      <c r="A81" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="104"/>
+      <c r="C81" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="105"/>
+      <c r="G81" s="106">
         <v>0.2</v>
       </c>
-      <c r="Q53" s="171"/>
-      <c r="R53" s="171"/>
-    </row>
-    <row r="54" spans="1:18" ht="15" customHeight="1">
-      <c r="A54" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="172"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="172"/>
-      <c r="F54" s="172"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="172"/>
-      <c r="K54" s="172"/>
-      <c r="L54" s="172"/>
-      <c r="M54" s="172"/>
-      <c r="N54" s="172"/>
-      <c r="O54" s="172"/>
-      <c r="P54" s="172"/>
-      <c r="Q54" s="172"/>
-      <c r="R54" s="172"/>
-    </row>
-    <row r="55" spans="1:18" ht="15" customHeight="1">
-      <c r="A55" s="173" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="173"/>
-      <c r="C55" s="174" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="174"/>
-      <c r="E55" s="174" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="174"/>
-      <c r="G55" s="175">
-        <v>0.02</v>
-      </c>
-      <c r="H55" s="175"/>
-      <c r="I55" s="176">
-        <v>0.1</v>
-      </c>
-      <c r="J55" s="176"/>
-      <c r="K55" s="176">
-        <v>0.6</v>
-      </c>
-      <c r="L55" s="176"/>
-      <c r="M55" s="176">
-        <v>1.7</v>
-      </c>
-      <c r="N55" s="176"/>
-      <c r="O55" s="177"/>
-      <c r="P55" s="178">
-        <v>53</v>
-      </c>
-      <c r="Q55" s="179"/>
-      <c r="R55" s="179"/>
-    </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1">
-      <c r="A56" s="173" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="173"/>
-      <c r="C56" s="180" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="180"/>
-      <c r="E56" s="180" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="180"/>
-      <c r="G56" s="181">
-        <v>1E-3</v>
-      </c>
-      <c r="H56" s="181"/>
-      <c r="I56" s="182">
-        <v>0.01</v>
-      </c>
-      <c r="J56" s="182"/>
-      <c r="K56" s="182">
-        <v>0.03</v>
-      </c>
-      <c r="L56" s="182"/>
-      <c r="M56" s="182">
-        <v>0.09</v>
-      </c>
-      <c r="N56" s="182"/>
-      <c r="O56" s="183"/>
-      <c r="P56" s="184">
-        <v>5</v>
-      </c>
-      <c r="Q56" s="185"/>
-      <c r="R56" s="185"/>
-    </row>
-    <row r="57" spans="1:18" ht="15" customHeight="1">
-      <c r="A57" s="173" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="173"/>
-      <c r="C57" s="180" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="180"/>
-      <c r="E57" s="180" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="180"/>
-      <c r="G57" s="186">
-        <v>0.2</v>
-      </c>
-      <c r="H57" s="186"/>
-      <c r="I57" s="187">
-        <v>140</v>
-      </c>
-      <c r="J57" s="187"/>
-      <c r="K57" s="187">
-        <v>120</v>
-      </c>
-      <c r="L57" s="187"/>
-      <c r="M57" s="187">
-        <v>690</v>
-      </c>
-      <c r="N57" s="187"/>
-      <c r="O57" s="188"/>
-      <c r="P57" s="189">
-        <v>2000</v>
-      </c>
-      <c r="Q57" s="190"/>
-      <c r="R57" s="190"/>
-    </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1">
-      <c r="A58" s="191" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="191"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="191"/>
-      <c r="F58" s="191"/>
-      <c r="G58" s="191"/>
-      <c r="H58" s="191"/>
-      <c r="I58" s="191"/>
-      <c r="J58" s="191"/>
-      <c r="K58" s="191"/>
-      <c r="L58" s="191"/>
-      <c r="M58" s="191"/>
-      <c r="N58" s="191"/>
-      <c r="O58" s="191"/>
-      <c r="P58" s="191"/>
-      <c r="Q58" s="191"/>
-      <c r="R58" s="191"/>
-    </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1">
-      <c r="A59" s="192" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="192"/>
-      <c r="C59" s="193" t="s">
-        <v>210</v>
-      </c>
-      <c r="D59" s="193"/>
-      <c r="E59" s="194" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="194"/>
-      <c r="G59" s="195">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H59" s="195"/>
-      <c r="I59" s="196">
-        <v>1E-3</v>
-      </c>
-      <c r="J59" s="196"/>
-      <c r="K59" s="197">
-        <v>0.01</v>
-      </c>
-      <c r="L59" s="197"/>
-      <c r="M59" s="197">
-        <v>0.03</v>
-      </c>
-      <c r="N59" s="197"/>
-      <c r="O59" s="198"/>
-      <c r="P59" s="199">
-        <v>0.5</v>
-      </c>
-      <c r="Q59" s="200"/>
-      <c r="R59" s="200"/>
-    </row>
-    <row r="60" spans="1:18" ht="15" customHeight="1">
-      <c r="A60" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="192"/>
-      <c r="C60" s="201" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="201"/>
-      <c r="E60" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="201"/>
-      <c r="G60" s="202">
-        <v>0.04</v>
-      </c>
-      <c r="H60" s="202"/>
-      <c r="I60" s="203">
-        <v>2.8</v>
-      </c>
-      <c r="J60" s="203"/>
-      <c r="K60" s="203">
-        <v>3.8</v>
-      </c>
-      <c r="L60" s="203"/>
-      <c r="M60" s="204">
-        <v>22</v>
-      </c>
-      <c r="N60" s="204"/>
-      <c r="O60" s="205"/>
-      <c r="P60" s="206">
-        <v>30</v>
-      </c>
-      <c r="Q60" s="207"/>
-      <c r="R60" s="207"/>
-    </row>
-    <row r="61" spans="1:18" ht="15" customHeight="1">
-      <c r="A61" s="192" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="192"/>
-      <c r="C61" s="201" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="201"/>
-      <c r="E61" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="201"/>
-      <c r="G61" s="202">
-        <v>0.01</v>
-      </c>
-      <c r="H61" s="202"/>
-      <c r="I61" s="208">
-        <v>0.08</v>
-      </c>
-      <c r="J61" s="208"/>
-      <c r="K61" s="203">
-        <v>0.2</v>
-      </c>
-      <c r="L61" s="203"/>
-      <c r="M61" s="203">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N61" s="203"/>
-      <c r="O61" s="209"/>
-      <c r="P61" s="210" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q61" s="211"/>
-      <c r="R61" s="211"/>
-    </row>
-    <row r="62" spans="1:18" ht="15" customHeight="1">
-      <c r="A62" s="192" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="192"/>
-      <c r="C62" s="201" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="201"/>
-      <c r="E62" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="201"/>
-      <c r="G62" s="202">
-        <v>0.03</v>
-      </c>
-      <c r="H62" s="202"/>
-      <c r="I62" s="203">
-        <v>0.7</v>
-      </c>
-      <c r="J62" s="203"/>
-      <c r="K62" s="204">
-        <v>1</v>
-      </c>
-      <c r="L62" s="204"/>
-      <c r="M62" s="203">
-        <v>5.4</v>
-      </c>
-      <c r="N62" s="203"/>
-      <c r="O62" s="209"/>
-      <c r="P62" s="212"/>
-      <c r="Q62" s="213"/>
-      <c r="R62" s="213"/>
-    </row>
-    <row r="63" spans="1:18" ht="15" customHeight="1">
-      <c r="A63" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="192"/>
-      <c r="C63" s="214" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="214"/>
-      <c r="E63" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="201"/>
-      <c r="G63" s="215">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H63" s="215"/>
-      <c r="I63" s="208">
-        <v>0.03</v>
-      </c>
-      <c r="J63" s="208"/>
-      <c r="K63" s="208">
-        <v>0.04</v>
-      </c>
-      <c r="L63" s="208"/>
-      <c r="M63" s="203">
-        <v>0.2</v>
-      </c>
-      <c r="N63" s="203"/>
-      <c r="O63" s="209"/>
-      <c r="P63" s="216">
-        <v>4</v>
-      </c>
-      <c r="Q63" s="217"/>
-      <c r="R63" s="217"/>
-    </row>
-    <row r="64" spans="1:18" ht="15" customHeight="1">
-      <c r="A64" s="192" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="192"/>
-      <c r="C64" s="201" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="201"/>
-      <c r="E64" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="201"/>
-      <c r="G64" s="202">
-        <v>0.03</v>
-      </c>
-      <c r="H64" s="202"/>
-      <c r="I64" s="203">
-        <v>0.6</v>
-      </c>
-      <c r="J64" s="203"/>
-      <c r="K64" s="203">
-        <v>0.8</v>
-      </c>
-      <c r="L64" s="203"/>
-      <c r="M64" s="203">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="N64" s="203"/>
-      <c r="O64" s="209"/>
-      <c r="P64" s="206">
-        <v>40</v>
-      </c>
-      <c r="Q64" s="207"/>
-      <c r="R64" s="207"/>
-    </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1">
-      <c r="A65" s="218" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="218"/>
-      <c r="C65" s="218"/>
-      <c r="D65" s="218"/>
-      <c r="E65" s="218"/>
-      <c r="F65" s="218"/>
-      <c r="G65" s="218"/>
-      <c r="H65" s="218"/>
-      <c r="I65" s="218"/>
-      <c r="J65" s="218"/>
-      <c r="K65" s="218"/>
-      <c r="L65" s="218"/>
-      <c r="M65" s="218"/>
-      <c r="N65" s="218"/>
-      <c r="O65" s="218"/>
-      <c r="P65" s="218"/>
-      <c r="Q65" s="218"/>
-      <c r="R65" s="218"/>
-    </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1">
-      <c r="A66" s="219" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="219"/>
-      <c r="C66" s="220" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="220"/>
-      <c r="E66" s="221" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="221"/>
-      <c r="G66" s="222">
-        <v>0.02</v>
-      </c>
-      <c r="H66" s="222"/>
-      <c r="I66" s="223">
-        <v>0.1</v>
-      </c>
-      <c r="J66" s="223"/>
-      <c r="K66" s="223">
-        <v>0.4</v>
-      </c>
-      <c r="L66" s="223"/>
-      <c r="M66" s="223">
-        <v>2.1</v>
-      </c>
-      <c r="N66" s="223"/>
-      <c r="O66" s="224"/>
-      <c r="P66" s="225">
-        <v>20</v>
-      </c>
-      <c r="Q66" s="226"/>
-      <c r="R66" s="226"/>
-    </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1">
-      <c r="A67" s="219" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="219"/>
-      <c r="C67" s="227" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="227"/>
-      <c r="E67" s="227" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="227"/>
-      <c r="G67" s="228">
-        <v>0.06</v>
-      </c>
-      <c r="H67" s="228"/>
-      <c r="I67" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="J67" s="229"/>
-      <c r="K67" s="229">
-        <v>0.8</v>
-      </c>
-      <c r="L67" s="229"/>
-      <c r="M67" s="229">
-        <v>4.5</v>
-      </c>
-      <c r="N67" s="229"/>
-      <c r="O67" s="230"/>
-      <c r="P67" s="231">
-        <v>300</v>
-      </c>
-      <c r="Q67" s="232"/>
-      <c r="R67" s="232"/>
-    </row>
-    <row r="68" spans="1:18" ht="15" customHeight="1">
-      <c r="A68" s="219" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="219"/>
-      <c r="C68" s="227" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="227"/>
-      <c r="E68" s="227" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="227"/>
-      <c r="G68" s="233">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H68" s="233"/>
-      <c r="I68" s="234">
-        <v>0.03</v>
-      </c>
-      <c r="J68" s="234"/>
-      <c r="K68" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="L68" s="229"/>
-      <c r="M68" s="229">
-        <v>0.4</v>
-      </c>
-      <c r="N68" s="229"/>
-      <c r="O68" s="230"/>
-      <c r="P68" s="231">
-        <v>4</v>
-      </c>
-      <c r="Q68" s="232"/>
-      <c r="R68" s="232"/>
-    </row>
-    <row r="69" spans="1:18" ht="15" customHeight="1">
-      <c r="A69" s="235" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" s="235"/>
-      <c r="C69" s="235"/>
-      <c r="D69" s="235"/>
-      <c r="E69" s="235"/>
-      <c r="F69" s="235"/>
-      <c r="G69" s="235"/>
-      <c r="H69" s="235"/>
-      <c r="I69" s="235"/>
-      <c r="J69" s="235"/>
-      <c r="K69" s="235"/>
-      <c r="L69" s="235"/>
-      <c r="M69" s="235"/>
-      <c r="N69" s="235"/>
-      <c r="O69" s="235"/>
-      <c r="P69" s="235"/>
-      <c r="Q69" s="235"/>
-      <c r="R69" s="235"/>
-    </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1">
-      <c r="A70" s="236" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" s="236"/>
-      <c r="C70" s="237" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="237"/>
-      <c r="E70" s="237" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" s="237"/>
-      <c r="G70" s="238">
-        <v>0.06</v>
-      </c>
-      <c r="H70" s="238"/>
-      <c r="I70" s="239">
-        <v>0.6</v>
-      </c>
-      <c r="J70" s="239"/>
-      <c r="K70" s="239">
-        <v>1.7</v>
-      </c>
-      <c r="L70" s="239"/>
-      <c r="M70" s="239">
-        <v>9.4</v>
-      </c>
-      <c r="N70" s="239"/>
-      <c r="O70" s="240"/>
-      <c r="P70" s="241">
-        <v>30</v>
-      </c>
-      <c r="Q70" s="242"/>
-      <c r="R70" s="242"/>
-    </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1">
-      <c r="A71" s="236" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="236"/>
-      <c r="C71" s="243" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" s="243"/>
-      <c r="E71" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="243"/>
-      <c r="G71" s="244">
-        <v>0.03</v>
-      </c>
-      <c r="H71" s="244"/>
-      <c r="I71" s="245">
-        <v>0.5</v>
-      </c>
-      <c r="J71" s="245"/>
-      <c r="K71" s="245">
-        <v>1.5</v>
-      </c>
-      <c r="L71" s="245"/>
-      <c r="M71" s="245">
-        <v>8.5</v>
-      </c>
-      <c r="N71" s="245"/>
-      <c r="O71" s="246"/>
-      <c r="P71" s="247">
-        <v>200</v>
-      </c>
-      <c r="Q71" s="248"/>
-      <c r="R71" s="248"/>
-    </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1">
-      <c r="A72" s="236" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="236"/>
-      <c r="C72" s="243" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="243"/>
-      <c r="E72" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" s="243"/>
-      <c r="G72" s="249">
-        <v>0.05</v>
-      </c>
-      <c r="H72" s="249"/>
-      <c r="I72" s="250">
-        <v>1</v>
-      </c>
-      <c r="J72" s="250"/>
-      <c r="K72" s="250">
-        <v>3</v>
-      </c>
-      <c r="L72" s="250"/>
-      <c r="M72" s="250">
-        <v>6</v>
-      </c>
-      <c r="N72" s="250"/>
-      <c r="O72" s="251"/>
-      <c r="P72" s="252">
-        <v>10.5</v>
-      </c>
-      <c r="Q72" s="253"/>
-      <c r="R72" s="253"/>
-    </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1">
-      <c r="A73" s="254" t="s">
-        <v>215</v>
-      </c>
-      <c r="B73" s="236"/>
-      <c r="C73" s="243" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="243"/>
-      <c r="E73" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" s="243"/>
-      <c r="G73" s="245">
-        <v>0.1</v>
-      </c>
-      <c r="H73" s="245"/>
-      <c r="I73" s="250">
-        <v>68</v>
-      </c>
-      <c r="J73" s="250"/>
-      <c r="K73" s="250">
-        <v>170</v>
-      </c>
-      <c r="L73" s="250"/>
-      <c r="M73" s="250">
-        <v>960</v>
-      </c>
-      <c r="N73" s="250"/>
-      <c r="O73" s="251"/>
-      <c r="P73" s="255">
-        <v>600</v>
-      </c>
-      <c r="Q73" s="256"/>
-      <c r="R73" s="256"/>
-    </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1">
-      <c r="A74" s="236" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="236"/>
-      <c r="C74" s="257" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" s="257"/>
-      <c r="E74" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="243"/>
-      <c r="G74" s="245">
-        <v>0.1</v>
-      </c>
-      <c r="H74" s="245"/>
-      <c r="I74" s="245">
-        <v>0.6</v>
-      </c>
-      <c r="J74" s="245"/>
-      <c r="K74" s="245">
-        <v>1.6</v>
-      </c>
-      <c r="L74" s="245"/>
-      <c r="M74" s="245">
-        <v>9.6</v>
-      </c>
-      <c r="N74" s="245"/>
-      <c r="O74" s="246"/>
-      <c r="P74" s="255">
-        <v>200</v>
-      </c>
-      <c r="Q74" s="256"/>
-      <c r="R74" s="256"/>
-    </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1">
-      <c r="A75" s="236" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="236"/>
-      <c r="C75" s="243" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" s="243"/>
-      <c r="E75" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="243"/>
-      <c r="G75" s="249">
-        <v>0.09</v>
-      </c>
-      <c r="H75" s="249"/>
-      <c r="I75" s="250">
-        <v>7</v>
-      </c>
-      <c r="J75" s="250"/>
-      <c r="K75" s="250">
-        <v>25</v>
-      </c>
-      <c r="L75" s="250"/>
-      <c r="M75" s="250">
-        <v>50</v>
-      </c>
-      <c r="N75" s="250"/>
-      <c r="O75" s="251"/>
-      <c r="P75" s="252">
-        <v>10.5</v>
-      </c>
-      <c r="Q75" s="253"/>
-      <c r="R75" s="253"/>
-    </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1">
-      <c r="A76" s="236" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="236"/>
-      <c r="C76" s="243" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="243"/>
-      <c r="E76" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="243"/>
-      <c r="G76" s="249">
-        <v>0.01</v>
-      </c>
-      <c r="H76" s="249"/>
-      <c r="I76" s="250">
-        <v>34</v>
-      </c>
-      <c r="J76" s="250"/>
-      <c r="K76" s="250">
-        <v>85</v>
-      </c>
-      <c r="L76" s="250"/>
-      <c r="M76" s="250">
-        <v>480</v>
-      </c>
-      <c r="N76" s="250"/>
-      <c r="O76" s="251"/>
-      <c r="P76" s="255">
-        <v>180</v>
-      </c>
-      <c r="Q76" s="256"/>
-      <c r="R76" s="256"/>
-    </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1">
-      <c r="A77" s="236" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77" s="236"/>
-      <c r="C77" s="243" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="243"/>
-      <c r="E77" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="243"/>
-      <c r="G77" s="249">
-        <v>0.01</v>
-      </c>
-      <c r="H77" s="249"/>
-      <c r="I77" s="258">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J77" s="258"/>
-      <c r="K77" s="245">
-        <v>0.6</v>
-      </c>
-      <c r="L77" s="245"/>
-      <c r="M77" s="245">
-        <v>1.9</v>
-      </c>
-      <c r="N77" s="245"/>
-      <c r="O77" s="246"/>
-      <c r="P77" s="255">
-        <v>9</v>
-      </c>
-      <c r="Q77" s="256"/>
-      <c r="R77" s="256"/>
-    </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1">
-      <c r="A78" s="259" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="259"/>
-      <c r="C78" s="259"/>
-      <c r="D78" s="259"/>
-      <c r="E78" s="259"/>
-      <c r="F78" s="259"/>
-      <c r="G78" s="259"/>
-      <c r="H78" s="259"/>
-      <c r="I78" s="259"/>
-      <c r="J78" s="259"/>
-      <c r="K78" s="259"/>
-      <c r="L78" s="259"/>
-      <c r="M78" s="259"/>
-      <c r="N78" s="259"/>
-      <c r="O78" s="259"/>
-      <c r="P78" s="259"/>
-      <c r="Q78" s="259"/>
-      <c r="R78" s="259"/>
-    </row>
-    <row r="79" spans="1:18" ht="15" customHeight="1">
-      <c r="A79" s="260" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="260"/>
-      <c r="C79" s="261" t="s">
-        <v>217</v>
-      </c>
-      <c r="D79" s="262"/>
-      <c r="E79" s="262" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="262"/>
-      <c r="G79" s="263">
-        <v>0.2</v>
-      </c>
-      <c r="H79" s="263"/>
-      <c r="I79" s="264">
-        <v>14</v>
-      </c>
-      <c r="J79" s="264"/>
-      <c r="K79" s="264">
-        <v>33</v>
-      </c>
-      <c r="L79" s="264"/>
-      <c r="M79" s="264">
-        <v>190</v>
-      </c>
-      <c r="N79" s="264"/>
-      <c r="O79" s="265"/>
-      <c r="P79" s="266">
-        <v>600</v>
-      </c>
-      <c r="Q79" s="267"/>
-      <c r="R79" s="267"/>
-    </row>
-    <row r="80" spans="1:18" ht="15" customHeight="1">
-      <c r="A80" s="260" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="260"/>
-      <c r="C80" s="268" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="268"/>
-      <c r="E80" s="268" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="268"/>
-      <c r="G80" s="269">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H80" s="269"/>
-      <c r="I80" s="268" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="268"/>
-      <c r="K80" s="268" t="s">
-        <v>34</v>
-      </c>
-      <c r="L80" s="268"/>
-      <c r="M80" s="268" t="s">
-        <v>34</v>
-      </c>
-      <c r="N80" s="268"/>
-      <c r="O80" s="270"/>
-      <c r="P80" s="271" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q80" s="272"/>
-      <c r="R80" s="272"/>
-    </row>
-    <row r="81" spans="1:18" ht="15" customHeight="1">
-      <c r="A81" s="260" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="260"/>
-      <c r="C81" s="268" t="s">
+      <c r="H81" s="106"/>
+      <c r="I81" s="107">
+        <v>24</v>
+      </c>
+      <c r="J81" s="107"/>
+      <c r="K81" s="107">
+        <v>65</v>
+      </c>
+      <c r="L81" s="107"/>
+      <c r="M81" s="107">
+        <v>370</v>
+      </c>
+      <c r="N81" s="107"/>
+      <c r="O81" s="108"/>
+      <c r="P81" s="109">
+        <v>900</v>
+      </c>
+      <c r="Q81" s="110"/>
+      <c r="R81" s="110"/>
+    </row>
+    <row r="82" spans="1:18" ht="15" customHeight="1">
+      <c r="A82" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="268"/>
-      <c r="E81" s="268" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="268"/>
-      <c r="G81" s="273">
-        <v>0.2</v>
-      </c>
-      <c r="H81" s="273"/>
-      <c r="I81" s="274">
-        <v>24</v>
-      </c>
-      <c r="J81" s="274"/>
-      <c r="K81" s="274">
-        <v>65</v>
-      </c>
-      <c r="L81" s="274"/>
-      <c r="M81" s="274">
-        <v>370</v>
-      </c>
-      <c r="N81" s="274"/>
-      <c r="O81" s="275"/>
-      <c r="P81" s="276">
-        <v>900</v>
-      </c>
-      <c r="Q81" s="277"/>
-      <c r="R81" s="277"/>
-    </row>
-    <row r="82" spans="1:18" ht="15" customHeight="1">
-      <c r="A82" s="278" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="278"/>
-      <c r="C82" s="278"/>
-      <c r="D82" s="278"/>
-      <c r="E82" s="278"/>
-      <c r="F82" s="278"/>
-      <c r="G82" s="278"/>
-      <c r="H82" s="278"/>
-      <c r="I82" s="278"/>
-      <c r="J82" s="278"/>
-      <c r="K82" s="278"/>
-      <c r="L82" s="278"/>
-      <c r="M82" s="278"/>
-      <c r="N82" s="278"/>
-      <c r="O82" s="278"/>
-      <c r="P82" s="278"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="111"/>
+      <c r="L82" s="111"/>
+      <c r="M82" s="111"/>
+      <c r="N82" s="111"/>
+      <c r="O82" s="111"/>
+      <c r="P82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="15" customHeight="1">
       <c r="A83" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="279" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="279"/>
-      <c r="D83" s="279" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" s="279"/>
-      <c r="F83" s="280">
+      <c r="C83" s="92"/>
+      <c r="D83" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="92"/>
+      <c r="F83" s="93">
         <v>1</v>
       </c>
-      <c r="G83" s="280"/>
-      <c r="H83" s="280">
+      <c r="G83" s="93"/>
+      <c r="H83" s="93">
         <v>36</v>
       </c>
-      <c r="I83" s="280"/>
-      <c r="J83" s="280">
+      <c r="I83" s="93"/>
+      <c r="J83" s="93">
         <v>250</v>
       </c>
-      <c r="K83" s="280"/>
-      <c r="L83" s="280">
+      <c r="K83" s="93"/>
+      <c r="L83" s="93">
         <v>730</v>
       </c>
-      <c r="M83" s="281"/>
-      <c r="N83" s="282">
+      <c r="M83" s="94"/>
+      <c r="N83" s="95">
         <v>8</v>
       </c>
-      <c r="O83" s="283"/>
-      <c r="P83" s="283"/>
+      <c r="O83" s="96"/>
+      <c r="P83" s="96"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="284" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="284"/>
-      <c r="D84" s="285" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="285"/>
-      <c r="F84" s="287">
+      <c r="C84" s="75"/>
+      <c r="D84" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="97"/>
+      <c r="F84" s="76">
         <v>0.5</v>
       </c>
-      <c r="G84" s="287"/>
-      <c r="H84" s="288">
+      <c r="G84" s="76"/>
+      <c r="H84" s="77">
         <v>33</v>
       </c>
-      <c r="I84" s="288"/>
-      <c r="J84" s="288">
+      <c r="I84" s="77"/>
+      <c r="J84" s="77">
         <v>100</v>
       </c>
-      <c r="K84" s="288"/>
-      <c r="L84" s="288">
+      <c r="K84" s="77"/>
+      <c r="L84" s="77">
         <v>550</v>
       </c>
-      <c r="M84" s="289"/>
-      <c r="N84" s="290">
+      <c r="M84" s="78"/>
+      <c r="N84" s="99">
         <v>4.8</v>
       </c>
-      <c r="O84" s="291"/>
-      <c r="P84" s="291"/>
+      <c r="O84" s="100"/>
+      <c r="P84" s="100"/>
     </row>
     <row r="85" spans="1:18" ht="15" customHeight="1">
       <c r="A85" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="284" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="284"/>
-      <c r="D85" s="286"/>
-      <c r="E85" s="286"/>
-      <c r="F85" s="292">
+      <c r="C85" s="75"/>
+      <c r="D85" s="98"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="101">
         <v>0.25</v>
       </c>
-      <c r="G85" s="292"/>
-      <c r="H85" s="287">
+      <c r="G85" s="101"/>
+      <c r="H85" s="76">
         <v>0.5</v>
       </c>
-      <c r="I85" s="287"/>
-      <c r="J85" s="287">
+      <c r="I85" s="76"/>
+      <c r="J85" s="76">
         <v>1.6</v>
       </c>
-      <c r="K85" s="287"/>
-      <c r="L85" s="288">
+      <c r="K85" s="76"/>
+      <c r="L85" s="77">
         <v>3</v>
       </c>
-      <c r="M85" s="289"/>
-      <c r="N85" s="293">
+      <c r="M85" s="78"/>
+      <c r="N85" s="102">
         <v>14</v>
       </c>
-      <c r="O85" s="294"/>
-      <c r="P85" s="294"/>
+      <c r="O85" s="103"/>
+      <c r="P85" s="103"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1">
       <c r="A86" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="284" t="s">
+      <c r="C86" s="75"/>
+      <c r="D86" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="75"/>
+      <c r="F86" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="G86" s="76"/>
+      <c r="H86" s="77">
+        <v>44</v>
+      </c>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77">
+        <v>140</v>
+      </c>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77">
+        <v>850</v>
+      </c>
+      <c r="M86" s="78"/>
+      <c r="N86" s="79">
+        <v>600</v>
+      </c>
+      <c r="O86" s="80"/>
+      <c r="P86" s="80"/>
+    </row>
+    <row r="87" spans="1:18" ht="15" customHeight="1">
+      <c r="A87" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="284"/>
-      <c r="D86" s="284" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="284"/>
-      <c r="F86" s="287">
-        <v>0.1</v>
-      </c>
-      <c r="G86" s="287"/>
-      <c r="H86" s="288">
-        <v>44</v>
-      </c>
-      <c r="I86" s="288"/>
-      <c r="J86" s="288">
-        <v>140</v>
-      </c>
-      <c r="K86" s="288"/>
-      <c r="L86" s="288">
-        <v>850</v>
-      </c>
-      <c r="M86" s="289"/>
-      <c r="N86" s="295">
-        <v>600</v>
-      </c>
-      <c r="O86" s="296"/>
-      <c r="P86" s="296"/>
-    </row>
-    <row r="87" spans="1:18" ht="15" customHeight="1">
-      <c r="A87" s="297" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="297"/>
-      <c r="C87" s="297"/>
-      <c r="D87" s="297"/>
-      <c r="E87" s="297"/>
-      <c r="F87" s="297"/>
-      <c r="G87" s="297"/>
-      <c r="H87" s="297"/>
-      <c r="I87" s="297"/>
-      <c r="J87" s="297"/>
-      <c r="K87" s="297"/>
-      <c r="L87" s="297"/>
-      <c r="M87" s="297"/>
-      <c r="N87" s="297"/>
-      <c r="O87" s="297"/>
-      <c r="P87" s="297"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1">
       <c r="A88" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="298" t="s">
+      <c r="C88" s="83"/>
+      <c r="D88" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="83"/>
+      <c r="F88" s="84">
+        <v>0.02</v>
+      </c>
+      <c r="G88" s="85"/>
+      <c r="H88" s="86">
+        <v>0.4</v>
+      </c>
+      <c r="I88" s="87"/>
+      <c r="J88" s="86">
+        <v>0.8</v>
+      </c>
+      <c r="K88" s="87"/>
+      <c r="L88" s="88">
+        <v>6</v>
+      </c>
+      <c r="M88" s="89"/>
+      <c r="N88" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="299"/>
-      <c r="D88" s="298" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="299"/>
-      <c r="F88" s="300">
-        <v>0.02</v>
-      </c>
-      <c r="G88" s="301"/>
-      <c r="H88" s="302">
-        <v>0.4</v>
-      </c>
-      <c r="I88" s="303"/>
-      <c r="J88" s="302">
-        <v>0.8</v>
-      </c>
-      <c r="K88" s="303"/>
-      <c r="L88" s="304">
-        <v>6</v>
-      </c>
-      <c r="M88" s="305"/>
-      <c r="N88" s="306" t="s">
-        <v>178</v>
-      </c>
-      <c r="O88" s="307"/>
-      <c r="P88" s="307"/>
+      <c r="O88" s="91"/>
+      <c r="P88" s="91"/>
     </row>
     <row r="89" spans="1:18" ht="15" customHeight="1">
       <c r="A89" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="308" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="309"/>
-      <c r="D89" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="309"/>
-      <c r="F89" s="310">
+      <c r="C89" s="42"/>
+      <c r="D89" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="42"/>
+      <c r="F89" s="45">
         <v>0.01</v>
       </c>
-      <c r="G89" s="311"/>
-      <c r="H89" s="312">
+      <c r="G89" s="46"/>
+      <c r="H89" s="47">
         <v>0.3</v>
       </c>
-      <c r="I89" s="313"/>
-      <c r="J89" s="312">
+      <c r="I89" s="48"/>
+      <c r="J89" s="47">
         <v>0.8</v>
       </c>
-      <c r="K89" s="313"/>
-      <c r="L89" s="312">
+      <c r="K89" s="48"/>
+      <c r="L89" s="47">
         <v>5.9</v>
       </c>
-      <c r="M89" s="313"/>
-      <c r="N89" s="306"/>
-      <c r="O89" s="307"/>
-      <c r="P89" s="307"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="90"/>
+      <c r="O89" s="91"/>
+      <c r="P89" s="91"/>
     </row>
     <row r="90" spans="1:18" ht="15" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" s="314" t="s">
-        <v>218</v>
-      </c>
-      <c r="C90" s="309"/>
-      <c r="D90" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="309"/>
-      <c r="F90" s="315">
+        <v>180</v>
+      </c>
+      <c r="B90" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="42"/>
+      <c r="D90" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="42"/>
+      <c r="F90" s="43">
         <v>1E-3</v>
       </c>
-      <c r="G90" s="316"/>
-      <c r="H90" s="312">
+      <c r="G90" s="44"/>
+      <c r="H90" s="47">
         <v>0.8</v>
       </c>
-      <c r="I90" s="313"/>
-      <c r="J90" s="312">
+      <c r="I90" s="48"/>
+      <c r="J90" s="47">
         <v>2.5</v>
       </c>
-      <c r="K90" s="313"/>
-      <c r="L90" s="317">
+      <c r="K90" s="48"/>
+      <c r="L90" s="63">
         <v>17</v>
       </c>
-      <c r="M90" s="318"/>
-      <c r="N90" s="319">
+      <c r="M90" s="64"/>
+      <c r="N90" s="73">
         <v>0.6</v>
       </c>
-      <c r="O90" s="320"/>
-      <c r="P90" s="320"/>
+      <c r="O90" s="74"/>
+      <c r="P90" s="74"/>
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1">
       <c r="A91" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="308" t="s">
-        <v>183</v>
-      </c>
-      <c r="C91" s="309"/>
-      <c r="D91" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="309"/>
-      <c r="F91" s="321">
+      <c r="C91" s="42"/>
+      <c r="D91" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="42"/>
+      <c r="F91" s="56">
         <v>1E-4</v>
       </c>
-      <c r="G91" s="322"/>
-      <c r="H91" s="312">
+      <c r="G91" s="57"/>
+      <c r="H91" s="47">
         <v>0.3</v>
       </c>
-      <c r="I91" s="313"/>
-      <c r="J91" s="312">
+      <c r="I91" s="48"/>
+      <c r="J91" s="47">
         <v>0.7</v>
       </c>
-      <c r="K91" s="313"/>
-      <c r="L91" s="312">
+      <c r="K91" s="48"/>
+      <c r="L91" s="47">
         <v>3.8</v>
       </c>
-      <c r="M91" s="313"/>
-      <c r="N91" s="323">
+      <c r="M91" s="48"/>
+      <c r="N91" s="49">
         <v>7</v>
       </c>
-      <c r="O91" s="324"/>
-      <c r="P91" s="324"/>
+      <c r="O91" s="50"/>
+      <c r="P91" s="50"/>
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1">
       <c r="A92" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="42"/>
+      <c r="D92" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="42"/>
+      <c r="F92" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="G92" s="48"/>
+      <c r="H92" s="47">
+        <v>4.7</v>
+      </c>
+      <c r="I92" s="48"/>
+      <c r="J92" s="63">
+        <v>12</v>
+      </c>
+      <c r="K92" s="64"/>
+      <c r="L92" s="63">
+        <v>66</v>
+      </c>
+      <c r="M92" s="64"/>
+      <c r="N92" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="314" t="s">
-        <v>221</v>
-      </c>
-      <c r="C92" s="309"/>
-      <c r="D92" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="309"/>
-      <c r="F92" s="312">
-        <v>0.7</v>
-      </c>
-      <c r="G92" s="313"/>
-      <c r="H92" s="312">
-        <v>4.7</v>
-      </c>
-      <c r="I92" s="313"/>
-      <c r="J92" s="317">
-        <v>12</v>
-      </c>
-      <c r="K92" s="318"/>
-      <c r="L92" s="317">
-        <v>66</v>
-      </c>
-      <c r="M92" s="318"/>
-      <c r="N92" s="325" t="s">
-        <v>185</v>
-      </c>
-      <c r="O92" s="326"/>
-      <c r="P92" s="326"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="70"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B93" s="314" t="s">
-        <v>219</v>
-      </c>
-      <c r="C93" s="309"/>
-      <c r="D93" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="309"/>
-      <c r="F93" s="310">
+        <v>185</v>
+      </c>
+      <c r="B93" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="42"/>
+      <c r="D93" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="42"/>
+      <c r="F93" s="45">
         <v>0.02</v>
       </c>
-      <c r="G93" s="311"/>
-      <c r="H93" s="317">
+      <c r="G93" s="46"/>
+      <c r="H93" s="63">
         <v>1</v>
       </c>
-      <c r="I93" s="318"/>
-      <c r="J93" s="312">
+      <c r="I93" s="64"/>
+      <c r="J93" s="47">
         <v>7.5</v>
       </c>
-      <c r="K93" s="313"/>
-      <c r="L93" s="317">
+      <c r="K93" s="48"/>
+      <c r="L93" s="63">
         <v>23</v>
       </c>
-      <c r="M93" s="318"/>
-      <c r="N93" s="327"/>
-      <c r="O93" s="328"/>
-      <c r="P93" s="328"/>
+      <c r="M93" s="64"/>
+      <c r="N93" s="71"/>
+      <c r="O93" s="72"/>
+      <c r="P93" s="72"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1">
       <c r="A94" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="42"/>
+      <c r="D94" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="42"/>
+      <c r="F94" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="G94" s="46"/>
+      <c r="H94" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="I94" s="48"/>
+      <c r="J94" s="47">
+        <v>8.5</v>
+      </c>
+      <c r="K94" s="48"/>
+      <c r="L94" s="63">
+        <v>25</v>
+      </c>
+      <c r="M94" s="64"/>
+      <c r="N94" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="314" t="s">
-        <v>220</v>
-      </c>
-      <c r="C94" s="309"/>
-      <c r="D94" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" s="309"/>
-      <c r="F94" s="310">
-        <v>0.01</v>
-      </c>
-      <c r="G94" s="311"/>
-      <c r="H94" s="312">
-        <v>1.2</v>
-      </c>
-      <c r="I94" s="313"/>
-      <c r="J94" s="312">
-        <v>8.5</v>
-      </c>
-      <c r="K94" s="313"/>
-      <c r="L94" s="317">
-        <v>25</v>
-      </c>
-      <c r="M94" s="318"/>
-      <c r="N94" s="329" t="s">
-        <v>188</v>
-      </c>
-      <c r="O94" s="330"/>
-      <c r="P94" s="330"/>
+      <c r="O94" s="66"/>
+      <c r="P94" s="66"/>
     </row>
     <row r="95" spans="1:18" ht="15" customHeight="1">
       <c r="A95" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="308" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" s="309"/>
-      <c r="D95" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="309"/>
-      <c r="F95" s="310">
+      <c r="C95" s="42"/>
+      <c r="D95" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="42"/>
+      <c r="F95" s="45">
         <v>0.01</v>
       </c>
-      <c r="G95" s="311"/>
-      <c r="H95" s="312">
+      <c r="G95" s="46"/>
+      <c r="H95" s="47">
         <v>5.5</v>
       </c>
-      <c r="I95" s="313"/>
-      <c r="J95" s="317">
+      <c r="I95" s="48"/>
+      <c r="J95" s="63">
         <v>22</v>
       </c>
-      <c r="K95" s="318"/>
-      <c r="L95" s="317">
+      <c r="K95" s="64"/>
+      <c r="L95" s="63">
         <v>82</v>
       </c>
-      <c r="M95" s="318"/>
-      <c r="N95" s="331"/>
-      <c r="O95" s="332"/>
-      <c r="P95" s="332"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="68"/>
+      <c r="P95" s="68"/>
     </row>
     <row r="96" spans="1:18" ht="15" customHeight="1">
       <c r="A96" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="308" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" s="309"/>
-      <c r="D96" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96" s="309"/>
-      <c r="F96" s="321">
+      <c r="C96" s="42"/>
+      <c r="D96" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="42"/>
+      <c r="F96" s="56">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G96" s="322"/>
-      <c r="H96" s="315">
+      <c r="G96" s="57"/>
+      <c r="H96" s="43">
         <v>2E-3</v>
       </c>
-      <c r="I96" s="316"/>
-      <c r="J96" s="310">
+      <c r="I96" s="44"/>
+      <c r="J96" s="45">
         <v>0.02</v>
       </c>
-      <c r="K96" s="311"/>
-      <c r="L96" s="310">
+      <c r="K96" s="46"/>
+      <c r="L96" s="45">
         <v>0.04</v>
       </c>
-      <c r="M96" s="311"/>
-      <c r="N96" s="333">
+      <c r="M96" s="46"/>
+      <c r="N96" s="58">
         <v>0.05</v>
       </c>
-      <c r="O96" s="334"/>
-      <c r="P96" s="334"/>
+      <c r="O96" s="59"/>
+      <c r="P96" s="59"/>
     </row>
     <row r="97" spans="1:19" ht="15" customHeight="1">
       <c r="A97" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="308" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" s="309"/>
-      <c r="D97" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E97" s="309"/>
-      <c r="F97" s="315">
+      <c r="C97" s="42"/>
+      <c r="D97" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="42"/>
+      <c r="F97" s="43">
         <v>1E-3</v>
       </c>
-      <c r="G97" s="316"/>
-      <c r="H97" s="310">
+      <c r="G97" s="44"/>
+      <c r="H97" s="45">
         <v>0.01</v>
       </c>
-      <c r="I97" s="311"/>
-      <c r="J97" s="310">
+      <c r="I97" s="46"/>
+      <c r="J97" s="45">
         <v>0.06</v>
       </c>
-      <c r="K97" s="311"/>
-      <c r="L97" s="312">
+      <c r="K97" s="46"/>
+      <c r="L97" s="47">
         <v>0.2</v>
       </c>
-      <c r="M97" s="313"/>
-      <c r="N97" s="335">
+      <c r="M97" s="48"/>
+      <c r="N97" s="60">
         <v>0.17</v>
       </c>
-      <c r="O97" s="336"/>
-      <c r="P97" s="336"/>
+      <c r="O97" s="61"/>
+      <c r="P97" s="61"/>
     </row>
     <row r="98" spans="1:19" ht="15" customHeight="1">
       <c r="A98" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B98" s="308" t="s">
+      <c r="C98" s="42"/>
+      <c r="D98" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="42"/>
+      <c r="F98" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="G98" s="44"/>
+      <c r="H98" s="43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I98" s="44"/>
+      <c r="J98" s="45">
+        <v>0.06</v>
+      </c>
+      <c r="K98" s="46"/>
+      <c r="L98" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="M98" s="48"/>
+      <c r="N98" s="49">
+        <v>2</v>
+      </c>
+      <c r="O98" s="50"/>
+      <c r="P98" s="50"/>
+    </row>
+    <row r="99" spans="1:19" ht="15" customHeight="1">
+      <c r="A99" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="309"/>
-      <c r="D98" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="309"/>
-      <c r="F98" s="315">
-        <v>1E-3</v>
-      </c>
-      <c r="G98" s="316"/>
-      <c r="H98" s="315">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I98" s="316"/>
-      <c r="J98" s="310">
-        <v>0.06</v>
-      </c>
-      <c r="K98" s="311"/>
-      <c r="L98" s="312">
-        <v>0.2</v>
-      </c>
-      <c r="M98" s="313"/>
-      <c r="N98" s="323">
-        <v>2</v>
-      </c>
-      <c r="O98" s="324"/>
-      <c r="P98" s="324"/>
-    </row>
-    <row r="99" spans="1:19" ht="15" customHeight="1">
-      <c r="A99" s="337" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99" s="337"/>
-      <c r="C99" s="337"/>
-      <c r="D99" s="337"/>
-      <c r="E99" s="337"/>
-      <c r="F99" s="337"/>
-      <c r="G99" s="337"/>
-      <c r="H99" s="337"/>
-      <c r="I99" s="337"/>
-      <c r="J99" s="337"/>
-      <c r="K99" s="337"/>
-      <c r="L99" s="337"/>
-      <c r="M99" s="337"/>
-      <c r="N99" s="337"/>
-      <c r="O99" s="337"/>
-      <c r="P99" s="337"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1">
       <c r="A100" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="338" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="338"/>
-      <c r="D100" s="338" t="s">
-        <v>34</v>
-      </c>
-      <c r="E100" s="338"/>
-      <c r="F100" s="339">
+      <c r="C100" s="34"/>
+      <c r="D100" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="34"/>
+      <c r="F100" s="52">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G100" s="339"/>
-      <c r="H100" s="340">
+      <c r="G100" s="52"/>
+      <c r="H100" s="36">
         <v>0.01</v>
       </c>
-      <c r="I100" s="340"/>
-      <c r="J100" s="340">
+      <c r="I100" s="36"/>
+      <c r="J100" s="36">
         <v>0.03</v>
       </c>
-      <c r="K100" s="340"/>
-      <c r="L100" s="340">
+      <c r="K100" s="36"/>
+      <c r="L100" s="36">
         <v>0.12</v>
       </c>
-      <c r="M100" s="341"/>
-      <c r="N100" s="342">
+      <c r="M100" s="53"/>
+      <c r="N100" s="54">
         <v>3.5</v>
       </c>
-      <c r="O100" s="343"/>
-      <c r="P100" s="343"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="55"/>
     </row>
     <row r="101" spans="1:19" ht="15" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="344" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="344"/>
-      <c r="D101" s="344" t="s">
-        <v>34</v>
-      </c>
-      <c r="E101" s="344"/>
-      <c r="F101" s="345">
+      <c r="B101" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="27"/>
+      <c r="F101" s="28">
         <v>0.24</v>
       </c>
-      <c r="G101" s="345"/>
-      <c r="H101" s="346">
+      <c r="G101" s="28"/>
+      <c r="H101" s="29">
         <v>16</v>
       </c>
-      <c r="I101" s="346"/>
-      <c r="J101" s="347">
+      <c r="I101" s="29"/>
+      <c r="J101" s="30">
         <v>1.7</v>
       </c>
-      <c r="K101" s="347"/>
-      <c r="L101" s="346">
+      <c r="K101" s="30"/>
+      <c r="L101" s="29">
         <v>270</v>
       </c>
-      <c r="M101" s="348"/>
-      <c r="N101" s="349">
+      <c r="M101" s="31"/>
+      <c r="N101" s="32">
         <v>0.09</v>
       </c>
-      <c r="O101" s="350"/>
-      <c r="P101" s="350"/>
+      <c r="O101" s="33"/>
+      <c r="P101" s="33"/>
     </row>
     <row r="102" spans="1:19" ht="15" customHeight="1">
       <c r="A102" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="338" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="338"/>
-      <c r="D102" s="338" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" s="338"/>
-      <c r="F102" s="351">
+      <c r="C102" s="34"/>
+      <c r="D102" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="34"/>
+      <c r="F102" s="35">
         <v>2.3E-2</v>
       </c>
-      <c r="G102" s="351"/>
-      <c r="H102" s="340">
+      <c r="G102" s="35"/>
+      <c r="H102" s="36">
         <v>0.15</v>
       </c>
-      <c r="I102" s="340"/>
-      <c r="J102" s="352">
+      <c r="I102" s="36"/>
+      <c r="J102" s="37">
         <v>0.7</v>
       </c>
-      <c r="K102" s="352"/>
-      <c r="L102" s="352">
+      <c r="K102" s="37"/>
+      <c r="L102" s="37">
         <v>3.2</v>
       </c>
-      <c r="M102" s="353"/>
-      <c r="N102" s="354">
+      <c r="M102" s="38"/>
+      <c r="N102" s="39">
         <v>42</v>
       </c>
-      <c r="O102" s="355"/>
-      <c r="P102" s="355"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
     </row>
     <row r="103" spans="1:19" ht="56" customHeight="1">
       <c r="A103" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="21">
+        <v>2</v>
+      </c>
+      <c r="G103" s="21"/>
+      <c r="H103" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="I103" s="22"/>
+      <c r="J103" s="21">
+        <v>37</v>
+      </c>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21">
+        <v>140</v>
+      </c>
+      <c r="M103" s="23"/>
+      <c r="N103" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+    </row>
+    <row r="104" spans="1:19" ht="177.5" customHeight="1">
+      <c r="A104" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14"/>
+      <c r="R104" s="14"/>
+      <c r="S104" s="14"/>
+    </row>
+    <row r="105" spans="1:19" ht="30" customHeight="1">
+      <c r="A105" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="356" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="356"/>
-      <c r="D103" s="356" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="356"/>
-      <c r="F103" s="357">
-        <v>2</v>
-      </c>
-      <c r="G103" s="357"/>
-      <c r="H103" s="358">
-        <v>7.5</v>
-      </c>
-      <c r="I103" s="358"/>
-      <c r="J103" s="357">
-        <v>37</v>
-      </c>
-      <c r="K103" s="357"/>
-      <c r="L103" s="357">
-        <v>140</v>
-      </c>
-      <c r="M103" s="359"/>
-      <c r="N103" s="360" t="s">
-        <v>34</v>
-      </c>
-      <c r="O103" s="361"/>
-      <c r="P103" s="361"/>
-    </row>
-    <row r="104" spans="1:19" ht="177.5" customHeight="1">
-      <c r="A104" s="362" t="s">
-        <v>208</v>
-      </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-      <c r="S104" s="16"/>
-    </row>
-    <row r="105" spans="1:19" ht="30" customHeight="1">
-      <c r="A105" s="16" t="s">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+    </row>
+    <row r="106" spans="1:19" ht="37.5" customHeight="1">
+      <c r="A106" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-      <c r="R105" s="16"/>
-      <c r="S105" s="16"/>
-    </row>
-    <row r="106" spans="1:19" ht="37.5" customHeight="1">
-      <c r="A106" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="16"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="661">
-    <mergeCell ref="A106:S106"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="A104:S104"/>
-    <mergeCell ref="A105:S105"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="A99:P99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:P89"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E85"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="A78:R78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="A69:R69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="A65:R65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A42:R42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="A54:R54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="A58:R58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:R59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="E60:F60"/>
@@ -8801,376 +8899,274 @@
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A58:R58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="A54:R54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A42:R42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="A65:R65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="A69:R69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="A78:R78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E85"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:P89"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="A106:S106"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="A104:S104"/>
+    <mergeCell ref="A105:S105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
